--- a/deuChatbot/research_result/version_1(2500_300).xlsx
+++ b/deuChatbot/research_result/version_1(2500_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13635,6 +13635,7251 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 점수가 반영된다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 포함하고 있어 일관성이 없습니다. 원본 텍스트의 주장을 완전히 반박하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 출결 점수에 대한 정보를 제공하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 아니므로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성이 있지만, 원본 텍스트와의 내용 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.6304592291824902</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>네, 동의대학교 학생부교과 전형에서는 출결 점수가 반영됩니다. 
+특히 나군 학생부종합전형의 경우, 출결 상황이 다음과 같이 반영됩니다:
+- 출결 점수는 12점 만점으로 평가됩니다.
+- 결석일수에 따라 점수가 다르게 부여되며, 최대 90점까지 받을 수 있습니다. 
+- 구체적인 기준은 아래와 같습니다:
+  - 0~2일 : 120점
+  - 3~6일 : 90점
+  - 7~12일 : 60점
+  - 13~20일 : 30점
+  - 21일 이상 : 0점
+따라서 출결 관리는 학생부교과 전형에서 중요한 요소 중 하나로 간주되어야 합니다.
+이 정보는 제공된 자료를 바탕으로 추론한 것입니다. 동의대학교 입학처 웹사이트나 최신 안내자료를 확인하시면 정확한 내용을 파악하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 모집 인원인 17명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 일부 문장이 다소 복잡하게 연결되어 있어 완전한 일관성을 위해 개선이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.7530175962997924</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17这条信息来自“加军 普通学生型，技能/实绩（普通学生型） 招生单位及招生人数”表格中的：
+```
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17
+```</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.6339181814318038</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+참조된 정보:
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 다군 수능(일반학생전형)의 모집단위 및 모집인원 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 22명을 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7858138580050881</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과의 나군 일반학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 영어영역 등급에 따른 점수를 정확히 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수능 영어영역 등급에 따른 점수에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장이 다소 어색하게 느껴질 수 있습니다. 하지만 전반적인 문법과 문장 구조는 양호합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6319602563890807</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>以下是按照韩语提供的表格中关于英语等级对应的分数：
+| 等级 | 分数 |
+|------|------|
+| 1    | 139  |
+| 2    | 131  |
+| 3    | 123  |
+| 4    | 115  |
+| 5    | 107  |
+| 6    | 99   |
+| 7    | 91   |
+| 8    | 83   |
+| 9    | 75   |
+根据这个表格，你可以看到不同等级对应的分数。例如，英语等级为1的学生将获得139分，而等级为9的学生将获得75分。</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 그러나 전반적으로 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 복잡함이 있어 완벽한 이해를 위해 추가적인 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.7542244679248373</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 
+표에서 다음과 같이 명시되어 있습니다:
+```
+[표 추가내용]
+지원자의 거주지와 부모의 거주지는 동일하지 않아도 되며, 재학기간과 거주기간은 연속된 연수만을 인정합니다.(학업 중단 후 재입학할 경우에도 거주기간은 연속되어야 함)
+최초 입학일부터 졸업일까지 농어촌지역 또는 도서·벽지에 거주, 재학하지 않으면 불합격 또는 합격 이후라도 입학이 취소될 수 있습니다.(지원자격에 대한 추가 검증이 필요한 경우, 관련 서류를 제출받아 확인하며 전화 및 현장실사를 할 수 있음)
+[표 추가내용]
+농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.
+```
+또는:
+```
+[표 추가내용]
+지원자의 거주지와 부모의 거주지는 동일하지 않아도 되며, 재학기간과 거주기간은 연속된 연수만을 인정합니다.(학업 중단 후 재입학할 경우에도 거주기간은 연속되어야 함)
+최초 입학일부터 졸업일까지 농어촌지역 또는 도서·벽지에 거주, 재학하지 않으면 불합격 또는 합격 이후라도 입학이 취소될 수 있습니다.(지원자격에 대한 추가 검증이 필요한 경우, 관련 서류를 제출받아 확인하며 전화 및 현장실사를 할 수 있음)
+[표 추가내용]
+농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.
+```
+따라서 예술고 학생은 농어촌학생전형의 지원 자격에 해당하지 않으므로 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 4등급 기록을 200cm 이상으로 잘못 제시하고 있으며, 배점도 175점으로 잘못 기재되어 있습니다. 원본 텍스트의 기록은 218~221 cm이고 배점은 275점입니다. 또한 Z-런에 대한 정보는 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본의 내용과 상충되는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, Z-런에 대한 언급은 원본 텍스트와 관련이 없으므로 전체적으로 낮은 점수를 받습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, Z-런에 대한 언급이 포함되어 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 부분이 있으며, Z-런에 대한 언급은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.8038618784072232</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>4등급에서 레저스포츠학과 여자 제자리 멀리뛰기의 기록은 200cm 이상이며, 해당 기록에 대한 배점은 175점입니다.
+Z-런의 경우, 4등급 기록은 15.60~15.79초 이며, 배점은 175점입니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 전형요소 반영 비율에 대한 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 비율에 대한 정보를 일관되게 제공하지만, 전형요소 반영 비율에 대한 추가 정보는 원본 텍스트와 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 약간의 문장 구조 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 전형요소 반영 비율에 대한 추가 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율에 대한 정보는 정확하지만, 전형요소 반영 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 원본 텍스트와의 일관성 및 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞습니다. 그러나 추가 정보가 원본과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 다만, 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.7187976204867207</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>12%입니다. 
+경기지도학과의 전형요소 반영비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+따라서 경기지도학과에서 출결은 총 점수 중 12%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.6385899365671969</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+참조 정보:
+- [표 속성] ``` 단과대학 / 계열 / 모집단위 / 모집인원 ```
+- [표 내용] 
+```
+공과대학 / 공학 / 물리치료학과 / 4 /
+```</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 세부사항도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 실기고사 일정에 직접적으로 관련되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.4944708070022498</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+이 정보는 "전형일정" 표에서 확인할 수 있습니다:
+&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2024. 01. 17.(수) / 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+따라서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 예정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저 학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 점을 반복적으로 강조하고 있습니다. 모든 정보가 서로 충돌하지 않고 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 수능 최저 기준에 직접적으로 관련된 내용을 다루고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.5559891146742207</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정시모집에서는 수능 최저기준이 없습니다. 
+참조로, 전형요소 반영비율 표에서 볼 수 있듯이 응용화학과는 "수능 위주"로 모집되며, 수능최저기준 항목에 "수능최저기준 없음"이라고 기재되어 있습니다.
+따라서 지원자들은 수능 점수를 최우선적으로 준비해야 하며, 정시모집에서는 수능 최저기준이 설정되지 않았음을 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에는 신설된 학과 목록에 대한 여러 가지 부정확한 정보가 포함되어 있습니다. 예를 들어, '부동산자산경역학부'와 '간호학과'는 원본 텍스트에 언급되지 않았습니다. 또한, '미래융합대학'이라는 학부는 원본 텍스트에 나타나지 않으며, '스마트업창업투자학'이라는 하위 분야도 원본에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에 포함된 학과들은 일부만 언급되었고, 새로운 학과들이 추가되어 있어 원본과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있지만, 원본 텍스트에 포함되지 않은 학과들이 추가되어 있어 관련성이 떨어집니다. 그러나 여전히 신설 학과에 대한 정보를 다루고 있으므로 일부 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 복잡하여 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과를 나열하고 있지만, 각 학과의 설명이 명확하게 연결되지 않아 일관된 흐름이 부족합니다. 특히, 새로운 학과들이 추가되면서 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 많습니다. 신설된 학과 목록에 대한 정확성이 부족하여 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하지만, 원본 텍스트와의 차이로 인해 의미적으로 완전히 적절하지 않습니다. 그러나 주제와 관련된 내용을 다루고 있어 일부 적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.7186115415547124</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같은 것들이 있습니다:
+1. 미래융합대학 - 라이프융합학부 (신설)
+   - 하위 분야: 스마트업창업투자학, 뷰티비즈니스학, 라이프생활문화학
+2. 부동산자산경역학부 (신설) - 하위 분야: 부동산투자학, 부동산개발경영학
+3. 상경대학 - 창업투자경영학과 (신설)
+4. 상경대학 - 스마트항만물류학과 (신설)
+5. 의료보건생활대학 - 간호학과 (교직 - 간호교육인증) 
+6. 인문사회과학대학 - 심리학과 (신설)
+7. 공과대학 - 토목공학과
+8. 공과대학 - 도시공학과 (교직)
+9. 공과대학 - 건축공학과 (교직)
+10. 공과대학 - 건축학과(5년제) 
+이러한 신설 학과들은 2024학년도부터 입학생을 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 전형요소 반영비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.8555683042447332</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 정보는 [표 내용] 섹션에서 직접 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '한의예과'라는 학과를 언급하고 있지만, 원본 텍스트에서는 '의료·보건·생활대학', '공과대학', 'ICT융합공과대학'이라는 모집단위에서 수능 가산점을 적용한다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 모집단위와 일치하지 않으며, '한의예과'라는 정보는 원본에 포함되어 있지 않습니다. 이로 인해 응답의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있으나, 특정 학과에 대한 잘못된 정보가 포함되어 있어 관련성은 있지만 정확하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 '한의예과'라는 잘못된 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 약해 보입니다. '한의예과'라는 정보가 원본에 없기 때문에 논리적 흐름이 다소 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 의미를 전달하고 있지만, 잘못된 학과 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.6858493420364251</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 **한의예과** 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+이 정보는 "수능 반영영역 및 가산점" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 성적 반영 비율에 대한 구체적인 정보를 제공하고 있지만, 원본 텍스트에서 언급된 "100% 반영"이라는 사실과는 상충합니다. 원본 텍스트는 수능 성적을 100% 반영한다고 명시하고 있으나, 생성된 응답은 각 과목별 비율을 제시하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 각 과목의 비율을 나열하여 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하긴 하지만, 원본 텍스트의 핵심 내용인 "100% 반영"이라는 점을 간과하고 있습니다. 따라서 관련성은 있지만, 핵심적인 부분이 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 각 과목별 비율을 나열하고 있지만, 원본 텍스트의 주제와 연결되지 않아 일관성이 떨어집니다. 정보는 제공되지만, 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트는 수능 성적을 100% 반영한다고 명시하고 있으나, 생성된 응답은 비율을 제시하여 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 매우 낮은 점수를 받았습니다. 따라서 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 수능 성적 반영 방식에 대한 잘못된 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.6915074286893408</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- 국어(화법과작문 또는 언어와매체): 25%
+- 수학(확률과통계 또는 미적분 또는 기하): 25%
+- 영어: 25%
+- 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합): 25%
+또한, 한의예과 수학(미적분/기하) 응시자에게는 수학 표준점수의 10% 가산점이 부여됩니다.
+참고로, 탐구 영역은 지정과목이 없으며, 영어영역은 등급에 따른 점수를 반영합니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사 날짜에 대한 정보를 제공하지만, 1월 16일(화) 외에 1월 17일(수)도 언급하고 있어 사실과 다소 차이가 있습니다. 원본 텍스트는 1월 16일에만 진행된다고 명시하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가적인 날짜를 언급함으로써 일관성이 떨어집니다. 원본 텍스트의 정보와 충돌하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 날짜에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 날짜로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 불일치로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 정확성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞아떨어집니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 날짜로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.6708685737442206</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사 날짜는 다음과 같습니다:
+- 레저스포츠학과, 태권도학과: 2024. 01. 16.(화)
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024. 01. 17.(수)
+이 정보는 "전형일정" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경기지도학과가 제외된다고 언급하고 있지만, 원문에서는 경기지도학과가 제외된다고 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있습니다. 원문에서는 경기지도학과가 제외된다고 명시되어 있는데, 생성된 응답에서는 경기지도학과가 지원이 가능하지 않다고 하여 모순이 발생합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제외된 학과에 대한 정확한 정보를 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 잘못된 사실을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 모두 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 불일치로 인해 전체적인 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.6145006351040414</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 해당하는 모집단위는 경기지도학과입니다.
+따라서, 경기지도학과는 나군 수능(일반학생전형)에서 지원이 가능하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 수능 최저기준이 적용되지 않는다는 사실이 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 완전히 일치하며, 추가된 정보도 원본의 내용을 보완하는 형태로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 질문에 대한 직접적인 답변을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.831786752604182</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+관련 정보는 다음과 같습니다:
+- [전형별 모집단위별 모집인원] 표에서 다군 일반학생전형의 경우 "수능최저기준 없음"으로 표시되어 있습니다.
+- [전형요소 반영비율] 표에서도 다군 수능(일반학생전형) 모집단위의 경우 "수능최저기준 없음"으로 기재되어 있습니다.
+따라서, 2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.8366138041752357</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 일부 학과는 모집군이나 전형명이 변경되었으며, 새로운 학과와 신설된 학과도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 원서접수 마감일과 시간 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.8615905821495246</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 2024년 1월 6일(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 아닌 다른 전형에 대한 정보를 포함하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 전형에 대한 정보를 제공하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적고, 동의대학교의 전형 요소 변화에 대한 구체적인 정보를 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 부적절성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.8102352619443974</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **정시모집군 변경**:
+   - 영어영문학과 (가) → 영어영문학과 (다)
+   - 호텔‧컨벤션경영학과 (나) → 호텔‧컨벤션경영학과 (가)
+   - 로봇자동화공학과 (나) → 로봇자동화공학과 (가)
+   - 토목공학과 (가) → 토목공학과 (나)
+   - 응용화학과 (가) → 응용화학과 (다)
+   - 바이오의약공학과 (다) → 바이오의약공학과 (나)
+   - 제품디자인공학과 (나) → 제품디자인공학과 (가)
+   - 전기공학과 (나) → 전기공학과 (가)
+   - 전자공학과 (나) → 전자공학과 (가)
+2. **전형명 및 지원자격 변경**:
+   - 학생부종합(성인학습자전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+   - 학생부종합(성인학습자(정원내)전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+3. **학생부 교과성적 반영방법 변경**:
+   - 전 모집단위 (한의예과 제외): 반영과목 수가 증가
+     - 전 모집단위(한의예과 제외) 8과목: 국어, 수학, 영어교과 중 석차등급 상위 8과목 4과목
+     - 한의예과: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+이러한 변화들은 각 전형별로 지원 자격, 평가 요소, 반영 방식 등에 영향을 미칠 수 있으므로 신중하게 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 명확히 전달하고 있습니다. 추가적으로 제공된 정보도 원본과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 실기 비중에 대한 설명이 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 실기 비중에 직접적으로 관련된 정보를 제공합니다. 추가적인 표와 설명도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어져 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.7678971573762037</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이는 "가군 실기/실적(일반학생전형) 전형요소 반영비율" 표에서 확인할 수 있습니다:
+```
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / }
+```
+또는 "실기고사 레저스포츠학과" 표에서도 확인할 수 있습니다:
+```
+레저스포츠학과 / 제자리 멀리뛰기 / 350점(35%) /
+레저스포츠학과 / Z-런 / 350점(35%) /
+실기고사 레저스포츠학과
+모집단위 / 실기종목 / 종목별 배점(비율)
+레저스포츠학과 / 제자리 멀리뛰기 / 350점(35%) /
+레저스포츠학과 / Z-런 / 350점(35%)
+```
+따라서 가군 실기/실적 전형에서 실기 점수는 총 점수의 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 라이프융합학부의 세부 전공을 정확하게 나열하고 있으며, 추가적인 정보인 모집 전형에 대한 언급이 있지만, 이는 원본 텍스트에 포함되어 있지 않은 내용입니다. 따라서 약간의 부정확성이 있지만, 전반적으로 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 세부 전공을 나열하고 있습니다. 그러나 모집 전형에 대한 추가 정보는 원본 텍스트에 없으므로 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제인 라이프융합학부의 세부 전공에 직접적으로 관련된 내용을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 세부 전공을 나열한 후 추가 정보를 제공하는 방식으로 일관성을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 세부 전공에 대한 정확한 정보를 제공하고 있지만, 모집 전형에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 높은 점수를 받고 있으며, 약간의 개선이 필요한 부분이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있지만, 추가된 정보가 원본 텍스트와의 일관성을 약간 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 그러나 일부 독자에게는 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8443869165439771</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과인 "라이프융합학부"의 세부 전공은 다음과 같습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이러한 세부전공들은 나군 학생부종합(평생학습자전형)으로 모집됩니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '체육학과' 대신 '태권도학과'를 언급하고 있으며, 이는 사실과 다릅니다. 또한, 실기 종목에 대한 정보도 원본 텍스트에 포함되어 있지 않은 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. '태권도학과'는 원본에 포함되어 있지 않으며, 실기 종목에 대한 정보도 일치하지 않습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 전체적으로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 구조적으로 일관성이 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 의미적으로는 관련이 있지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 내용이 명확하게 전달되지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.6644213433731176</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 태권도학과
+- 실기종목: 품새, 시범, 겨루기
+2. 레저스포츠학과
+- 실기종목: 제자리 멀리뛰기, Z-런
+이 두 학과에서 지원자는 해당하는 실기고사를 치러야 합니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 지원 가능한 학과 목록에서 '레저스포츠학과'와 '태권도학과'를 누락하였고, '디자인조형학과'에 대한 세부 사항을 추가했지만, 원본 텍스트의 핵심 정보를 정확히 반영하지 못했습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 특히 지원 가능한 학과 목록에서 중요한 학과를 누락했습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 학과 목록을 누락하여 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전형에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다. 특히 지원 가능한 학과 목록에서 중요한 학과를 누락했습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소가 있지만, 사실성과 일관성에서 큰 결함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 전형에 대한 설명이 적절하지만, 원본 텍스트의 핵심 정보를 누락하여 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.6743603279047399</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "나군 실기/실적(일반학생전형)"은 다음과 같은 학과에 지원할 수 있습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+3. 경기지도학과
+이 전형은 주로 실기 능력이나 실적을 중점적으로 평가합니다. 지원하려는 학생들은 해당 학과의 실기 능력을 갖추고 있어야 합니다.
+참고로, 이 전형은 다른 전형에 비해 실기 성적이 큰 비중을 차지하기 때문에, 관련 실기를 잘 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공을 정확하게 나열하고 있으며, 전공의 이름을 약간 다르게 표현했지만 본질적으로 동일한 내용을 전달하고 있습니다. 그러나 "2024학년도"라는 언급은 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 전공을 나열하고 있으며, 전공의 핵심 과정을 강조하고 있습니다. 다만, "미래융합대학"이라는 새로운 명칭이 원본 텍스트에 없기 때문에 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 라이프융합학부의 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "스타트업 창업 투자학"과 같은 전공 이름의 띄어쓰기가 일관되지 않아 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 설명이 자연스럽게 이어집니다. 그러나 "미래융합대학"이라는 새로운 정보가 추가되어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공의 이름은 정확하게 나열되었으나, "2024학년도"와 "미래융합대학"이라는 추가 정보는 원본 텍스트에 없으므로 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 새로운 정보가 추가되어 원본의 의미와 약간의 차이를 보입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 용어의 띄어쓰기가 일관되지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.8216415310935747</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활 문화학
+이러한 세 가지 전공이 라이프융합학부의 핵심 과정으로 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 동의대학교에 대한 정보가 잘못된 부분이 있습니다. 응답에서 언급된 "东国大学"는 "동의대학교"와 다르며, 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 특히, 동의대학교에 대한 언급이 원본 텍스트와 일관되지 않으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 정보와는 다소 관련이 떨어집니다. 원본 텍스트의 내용이 동의대학교에 대한 정보가 아닌 특수목적고등학교 출신 학생의 지원 가능성에 대한 것이기 때문입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 중국어로 작성된 부분이 한국어 질문과 연결되지 않아 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족합니다. 특히, 동의대학교에 대한 정보가 원본 텍스트와의 연관성이 떨어져 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 사실적으로 부정확한 정보를 포함하고 있습니다. 동의대학교에 대한 언급이 원본 텍스트의 내용과 일치하지 않으며, 이는 정확성을 저해합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이는 전체적인 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문에 대한 의미를 전달하려고 하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 동의대학교에 대한 정보가 원본 텍스트의 주제와 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.4851326528041787</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？你在询问是否可以申请동의대학교 (Dong-eui University) 的一般学生入学类型（常规学术型）吗？
+根据提供的信息，特需高中（特殊目的高中）的学生在某些情况下是可以申请东国大学的一般学生入学类型的。具体来说：
+- 特需高中包括科学高中、国际高中、外语高中、艺术高中和体育高中。
+- 但是，这些学校的毕业生不能申请“农林水产学生类型”、“平生学习者类型”、“成人学习者（定员内）类型”、“成人学习者（定员外）类型”、“在职人员类型”以及“早期就业型合同学科类型”。
+因此，如果你是特需高中的毕业生，并且你想申请东国大学的一般学生入学类型，你需要查看你想要申请的具体专业的具体要求。通常情况下，你是可以申请的，但需要确保符合该类型的其他所有条件。
+建议你访问东国大学官方网站或直接联系招生办公室以获取最准确的信息和确认你的资格。</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시하고 있지만, 생성된 응답에서는 경기지도학과가 가장 많이 모집한다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제에서 벗어나 경기지도학과에 대한 정보로 초점을 맞추고 있어 원문에서 요구하는 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성은 있지만, 주제의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.6294447948814257</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내외 모집 인원을 확인해야 합니다. 제공된 정보 중에서 나군의 정원 외 모집인원에 대한 표를 보면, 경기지도학과가 7명을 모집하고 있습니다.
+다음은 나군 전형에서 경기지도학과의 모집인원입니다:
+- 경기지도학과 / 예체능 / 배드민턴(남): 3
+- 경기지도학과 / 예체능 / 축구(남): 4
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **경기지도학과**로 보입니다. 이 학과는 배드민턴과 축구 두 가지 종목을 모집하며, 총 7명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 언급하고 있지만, 원문에서 명시된 "마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다"는 내용을 정확히 반영하지 않고 있습니다. 또한, "농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없다"는 구체적인 조건도 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문은 특정 조건을 명확히 제시하고 있지만, 생성된 응답은 그러한 조건을 무시하고 일반적인 설명을 제공하고 있습니다. 이로 인해 원문과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 농어촌학생전형에 대한 정보를 포함하고 있습니다. 그러나 원문에서 언급된 특정 조건을 다루지 않기 때문에 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 질문이 주어졌음에도 불구하고 중국어로 응답한 점은 유의해야 합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 연결이 약해 전체적인 일관성이 떨어집니다. 원문에서 제시된 조건과 관련된 내용이 부족하여 응답의 일관성이 저하됩니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않고 있으며, 지원 자격에 대한 중요한 세부사항을 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 따라서 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락을 어느 정도 반영하고 있지만, 원문에서 요구하는 특정 조건을 다루지 않기 때문에 의미적으로 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 언어의 일관성이 부족하여 한국어 질문에 대한 중국어 응답은 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.5224781726564798</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，根据提供的信息，你可能不符合东义大学农渔村学生选拔（農어촌학생전형）的资格要求。具体来说：
+1. 特殊高中（특수목적고등학교）的学生通常被排除在外。
+2. 农渔村学生选拔主要面向在农村或渔村地区就读并居住的初中到高中阶段的学生。
+所以，如果你是特殊高中的学生，你可能不符合这个选拔类型的资格要求。你需要查看具体的招生简章和条件来确认你的具体情况是否符合条件。
+如果有其他问题或者需要进一步的信息，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소스 텍스트의 내용을 왜곡하고 있으며, 소스 텍스트에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다고 명시되어 있습니다. 그러나 생성된 응답은 평균 성적에 대한 구체적인 수치를 제공하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 소스 텍스트와 일치하지 않으며, 소스 텍스트에서 제공되지 않은 정보를 포함하고 있습니다. 이는 응답의 일관성을 심각하게 저해합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련이 있지만, 제공된 정보가 사실이 아니기 때문에 관련성 점수가 낮습니다. 소스 텍스트의 요청에 대한 정확한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 소스 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보의 흐름은 좋지만, 사실에 기반하지 않기 때문에 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 소스 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 최저입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 일부 적절한 부분이 있지만, 전체적으로 소스 텍스트의 맥락과 맞지 않는 정보가 포함되어 있어 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.6746895361296762</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적 정보는 제공된 표에서 직접 확인할 수 없습니다. 하지만, 가까운 모집단위인 "ICT융합공과대학 / 공학 / 소프트웨어공학부"에 대한 정보를 찾아볼 수 있습니다.
+ICT융합공과대학 / 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: { 317.87 / 9.08 }
+- 영어 등급: { 3.77 / 0.67 }
+- 수능 4개 영역 등급: { 4.49 / 0.30 }
+따라서, 소프트웨어공학부의 합격자 평균 성적은 다음과 같을 것으로 추정할 수 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 317.87
+- 영어 등급: 3.77
+- 수능 4개 영역 등급: 4.49
+이 정보는 소프트웨어공학부와 가장 유사한 모집단위의 데이터를 기반으로 추정된 것입니다. 정확한 합격자 평균 성적은 공식 발표나 입학처에서 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제시하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 점이 있습니다. 원본 텍스트와의 연결이 없기 때문에 완전한 일관성을 갖추지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 구체적인 성적 정보를 제시하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.5380326745018444</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }: 330.11 / 9.08
+- 영어 등급 { 평균 / 표준 편차 }: 3.77 / 0.67
+- 수능 4개 영역 등급 { 평균 / 표준 편차 }: 4.49 / 0.30
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }: 434.70 / 8.01
+이 중 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균을 가장 중요한 성적 평균으로 볼 수 있습니다. 이 값은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 구체적인 날짜를 제공하지 않고 있으며, 원본 텍스트에서 명시된 날짜와 시간을 누락하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 합격자 발표 날짜에 대한 정보가 부정확합니다. 원본 텍스트는 구체적인 날짜를 제공하지만, 생성된 응답은 이를 생략하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표와 관련된 정보를 제공하지만, 원본 텍스트의 구체적인 날짜와 시간에 대한 언급이 없기 때문에 관련성 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 구체적인 정보가 누락되어 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 발표 날짜에 대한 정보가 부정확합니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 구체적인 내용을 반영하지 않아 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트의 구체적인 정보가 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.6271584316465297</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집의 최초합격자는 홈페이지를 통해 실시되며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 반드시 합격 여부를 확인해야 합니다. 하지만 정확한 합격자 발표 날짜는 제공되지 않았습니다.
+최종적으로 합격자 발표 날짜는 입학처나 대학 홈페이지에서 공식 발표될 예정이므로, 관련 정보가 업데이트된 대학 홈페이지를 주기적으로 확인하시거나, 입학처에 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접 일정에 대한 구체적인 정보를 제공하고 있지만, 원본 텍스트에서 명시된 면접고사 일정인 2024년 1월 20일(토)에 대한 언급이 없고, 다른 날짜에 대한 정보가 포함되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 날짜를 언급하고 있으며, 이는 일관성을 저해합니다. 원본 텍스트의 정보와 충돌하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접 일정에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 2024년 1월 20일(토) 면접 일정에 대한 직접적인 언급이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 날짜와 정보를 포함하고 있지만, 이들 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 원본 텍스트의 핵심 정보와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 날짜와 추가 정보를 포함하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접 일정에 대한 정보를 제공하려고 하지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.5045591861353824</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>면접은 전형 일정에 따라 각각의 날짜와 시간에 진행됩니다. 예를 들어, &lt;가&gt;군 실기고사의 경우 2024년 1월 16일(화)에 개별 면접이 이루어집니다. 
+&lt;나&gt;군 실기고사는 2024년 1월 17일(수)에 진행되며, 이 날은 대기실 및 입실 시간 안내를 위해 2024년 1월 12일(금) 14:00 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+합격자 발표와 등록금 납부 일정은 2월 초부터 시작되며, 이 또한 전형 일정에 따라 각각의 날짜와 시간에 진행됩니다. 
+따라서 정확한 면접일시는 해당 전형의 공고나 입학 안내 홈페이지를 통해 확인해야 합니다. 만약 자세한 정보가 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 한의예과의 최저학력 기준이 없다는 원문과 상반된 내용을 담고 있습니다. 응답에서는 최저학력 기준이 존재한다고 명시하고 있으며, 이는 명백한 사실의 왜곡입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 최저학력 기준이 없다고 했지만, 응답에서는 여러 조건을 제시하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 원문에서 언급된 내용과는 전혀 다른 정보를 제공합니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성을 고려할 때, 플루언시 점수는 다소 낮게 평가됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 전혀 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 다르며, 사실에 대한 심각한 오류가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 문맥에 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.5450502623989739</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 한의예과의 최저학력 기준은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이는 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 등 다양한 고교 유형의 졸업자 또는 동등 학력을 소지한 자에게 적용됩니다.
+특히 한의예과는 수학 과목에 대한 추가적인 요구사항이 있습니다:
+- 수학(미적분/기하) 응시자: 수학 취득 표준점수의 10% 가산점
+따라서, 한의예과를 지원하려면 최소한 고등학교 졸업 자격을 갖추고, 수학 과목에 대한 적절한 성적을 보유해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에 대한 정보를 제공하고 있지만, 동아대학교에 대한 잘못된 정보를 포함하고 있습니다. 동의대학교는 수능 최저학력 기준이 없다고 명시되어 있으나, 생성된 응답은 동아대학교에 대한 내용을 다루고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 질문에 대해 동아대학교의 정보를 제공하고 있습니다. 이로 인해 응답의 일관성이 떨어지며, 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에 대한 질문에 대해 동아대학교의 정보를 제공하고 있어 주제와 관련성이 낮습니다. 원본 텍스트와 관련된 정보를 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있으나, 주제가 동의대학교에서 동아대학교로 바뀌면서 논리적 흐름이 약해졌습니다. 따라서 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에 대한 질문에 대해 잘못된 정보를 제공하고 있습니다. 동아대학교에 대한 정보는 정확할 수 있으나, 질문의 맥락과 맞지 않기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 맥락과 맞지 않는 정보를 제공하고 있어 의미적으로 부적절합니다. 동의대학교에 대한 질문에 동아대학교의 정보를 제공하는 것은 의미적으로 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 주제와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.6186175010656911</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 동아대학교 정시모집에서는 주요 전형별로 수능 최저학력 기준을 적용하고 있지 않습니다. 
+[표 내용]에 따르면, 모든 전형의 "수능최저기준" 항목이 "없음"으로 표기되어 있습니다:
+- 가군 수능(일반학생전형) : 수능최저기준 없음
+- 나군 수능(일반학생전형) : 수능최저기준 없음 
+- 다군 수능(일반학생전형) : 수능최저기준 없음
+따라서 정시모집에서도 수능 최저학력 기준이 적용되지 않는 것으로 보입니다. 하지만 특정 전형이나 모집단위에서 추가로 수능 최저학력을 설정할 수도 있으므로, 해당 대학의 공식 홈페이지(https://ipsi.deu.ac.kr/main.do)를 확인하시거나 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법일 것입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3차 충원합격자 발표 일정에 대한 정보를 제공하지만, 원본 텍스트의 세부 사항을 완전히 반영하지 않고 있습니다. 원본 텍스트는 3차 이후 발표가 2024년 2월 15일 19:00부터 시작된다고 명시하고 있지만, 생성된 응답은 2024년 2월 15일 09:00부터 발표된다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 발표 시간에 대한 정보가 상충합니다. 원본 텍스트는 3차 이후 발표가 19:00부터 시작된다고 명시하고 있으나, 생성된 응답은 09:00부터 발표된다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 충원합격자 발표 일정에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정과 관련된 정보가 일관되게 연결되어 있습니다. 그러나 발표 시간에 대한 혼란이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 발표 시간에 대한 잘못된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 사실성과 일관성에서의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 발표 시간에 대한 잘못된 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 발표 시간에 대한 혼란으로 인해 일부 독자에게는 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.7769943023635277</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>3차 충원합격자는 다음과 같은 일정에 발표됩니다:
+2024년 2월 15일(목) 09:00부터 개별 전화 통보를 통해 발표되며, 이 시간 이후까지도 합격자 발표가 이루어집니다 (2024년 2월 20일 화요일 18시까지).
+이 시점에서 합격자는 다음과 같이 처리해야 합니다:
+- 홈페이지에서 개별 조회
+- 고지서 교부: 홈페이지에서 출력하거나 입학관리팀에서 수령 
+- 등록장소: 학교 지정은행 (등록금 고지서에 기재됨)
+따라서 3차 충원합격자는 최종적으로 2024년 2월 20일까지 발표될 수 있으며, 이 시점까지 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 발표 일정은 정확하게 반영하고 있지만, 1차 및 2차 등록 일정이 원본 텍스트에 포함되어 있지 않으며, 3차 이후 발표에 대한 설명이 다소 모호하게 표현되어 있습니다. 따라서 일부 사실이 추가되었지만, 원본 텍스트와의 일치성은 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하는 부분이 있지만, 등록 일정이 추가되어 있어 일관성이 떨어집니다. 또한, 3차 이후 발표에 대한 설명이 원본 텍스트와 다르게 표현되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 발표 일정에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 흐름이 자연스럽습니다. 그러나 등록 일정이 추가되면서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보를 추가하여 정확성이 떨어집니다. 특히 등록 일정은 원본에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 사실성과 일관성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 등록 일정으로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.8659156036292022</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>3차 충원 합격자는 다음과 같은 일정에 따라 발표됩니다:
+- **1차 발표**: 2024년 2월 14일(수) 09:00
+- **1차 등록**: 2024년 2월 14일(수) 09:00~16:00
+- **2차 발표**: 2024년 2월 15일(목) 09:00
+- **2차 등록**: 2024년 2월 15일(목) 09:00~16:00
+이후 추가 합격자는 개별 전화 통보를 통해 발표되며, 일정은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 추가모집에 대한 설명이 포함되어 있습니다. 그러나 "정시 &lt;나&gt;군"이라는 표현은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "정시 &lt;나&gt;군"이라는 부분이 원본에 없기 때문에 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 추가모집에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 약간의 중복된 정보가 있어 완전한 일관성에는 다소 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "정시 &lt;나&gt;군"이라는 표현이 원본에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 약간의 부정확성이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 "정시 &lt;나&gt;군"이라는 표현이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.7877351483617618</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서는 정시 모집에서 미달된 모집인원에 대해 추가로 합격자를 선발하기 위해 추가모집을 실시합니다. 
+특히, 수시모집에서 미달한 인원은 정시 일반학생전형 모집인원으로 이월하여 합격자를 선발하며, 나군 실기/실적(경기실적우수자전형), 학생부교과(농어촌학생전형), 학생부교과(특성화고동일계전형), 학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내)전형), 학생부종합(성인학습자(정원외)전형), 학생부종합(재직자전형), 학생부종합(조기취업형계약학과전형)의 결원인원은 정시 &lt;나&gt;군으로 이월하여 선발합니다.
+따라서 추가모집을 통해 모집되지 못한 인원이 있는 경우, 해당 분야에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 일부 정확한 정보를 포함하고 있지만, "만 30세 이상인 자"라는 조건은 원본 텍스트에 명시되어 있지 않으며, 모집 단과대학의 구체적인 명칭이 다르게 표현되었습니다. 따라서 일부 사실이 누락되거나 변형되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 모집 단과대학의 명칭과 전형의 세부 사항에서 일관성이 부족합니다. 예를 들어, "미래융합대학 라이프융합학부" 대신 "미래융합대학 인문사회 학부"로 언급되었습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 다루고 있으며, 원본 텍스트의 핵심 주제와 관련이 있습니다. 그러나 일부 세부 사항이 다르게 표현되어 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보의 일관성 부족으로 인해 완전한 일관성은 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 특정 세부 사항이 누락되거나 변형되었습니다. 예를 들어, 전형의 구체적인 명칭과 모집 단위의 정확한 명칭이 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있으며, 일부 강점과 약점이 혼재되어 있습니다. 정보의 정확성과 일관성에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 세부 사항에서 차이가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.7131342448884833</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학교에서 평생교육을 받은 학습자들을 대상으로 하는 입학 전형입니다. 주요 내용은 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 자 (성인학습자 정원내/외 전형)
+2. 모집 단과대학 및 계열:
+   - 미래융합대학 인문사회 학부 등
+3. 모집 인원:
+   - 각 모집단위별로 제한된 인원을 모집합니다.
+4. 전형 요소 반영 비율:
+   - 서류 평가: 70%
+   - 면접 평가: 30%
+5. 제출 서류:
+   - 고교 학교생활기록부 (온라인 제공 동의자는 제출 필요 없음)
+   - 검정고시 합격증서 및 성적증명서
+   - 외국고교 졸업(예정)자에 대한 공증받은 증명서 등
+6. 서류 제출 기간:
+   - 2024년 1월 3일 (수) ~ 1월 12일 (금) 17:00까지 도착분
+7. 면접 평가 내용:
+   - 학업역량, 지원동기 및 학업계획 등에 대한 질문
+8. 서류평가 영역:
+   - 공동체역량
+   - 학업역량
+   - 전공적합성
+9. 동점자 처리 기준:
+   - 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등급 평균 상위자 순으로 선발
+10. 합격자 발표 및 등록금 납부:
+    - 최초합격자부터 2차 충원합격자 발표까지 홈페이지를 통해 실시
+    - 지정된 기간 내에 등록금을 납부해야 합니다.
+이러한 정보는 일반적인 내용이며, 실제 모집요강이나 대학의 공식 웹사이트에서 가장 최신 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 추가 정보를 포함하고 있지만, 원본 텍스트에 명시된 지원자격 외에 만 30세 이상이라는 조건과 제출 서류, 제출 기간 및 장소에 대한 정보가 포함되어 있습니다. 이러한 정보는 원본 텍스트에 포함되어 있지 않으므로 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 지원자격을 포함하고 있지만, 추가적인 조건과 서류 제출에 대한 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족하여 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 추가적인 세부사항이 포함되어 있어 약간의 주제에서 벗어난 느낌이 있습니다. 그러나 여전히 관련성이 높기 때문에 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 다소 불연속적입니다. 각 항목이 명확하게 구분되어 있지만, 전체적으로 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 추가된 정보가 원본 텍스트와 일치하지 않거나 과도한 세부사항을 포함하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질을 고려할 때, 생성된 응답은 일부 긍정적인 요소가 있지만, 사실성, 일관성 및 정확성에서 부족함이 있어 중간 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 원본의 맥락과 완전히 일치하지 않기 때문에 의미적으로 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 정보가 과도하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.6338057971105417</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+2. 만 30세 이상인 자 (1994년 2월 28일 이전 출생)
+이러한 자격을 갖춘 지원자는 다음의 서류를 제출해야 합니다:
+- 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자가 아닌 경우)
+- 검정고시 합격증서 사본 또는 합격증명서 1부
+- 검정고시 성적증명서 1부
+추가로, 외국고교 졸업(예정)자인 경우에는:
+- 공증받은 외국고교 졸업(예정)증명서 1부
+- 공증받은 외국고교 성적증명서 1부
+- 학교생활기록부 대체 서류 (선택제출)
+제출 기간은 2024년 1월 3일(수)부터 1월 12일(금)까지이며, 제출 장소는 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀입니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 장소와 시간에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 특정 날짜와 시간(2024. 01. 12. 14:00 이후)과 관련된 정보는 포함되어 있지 않다. 따라서 일부 사실이 누락되었다고 평가할 수 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 특정 내용(대기실 및 입실시간)에 대한 언급이 없으므로 일관성이 떨어진다. 그러나 실기고사에 대한 일반적인 정보는 일관되게 유지되고 있다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하고 있으나, 원본 텍스트의 특정 질문에 대한 직접적인 답변이 부족하다. 그럼에도 불구하고 실기고사에 대한 유용한 정보를 포함하고 있어 관련성이 높다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있다. 그러나 원본 텍스트의 특정 정보가 누락되어 있어 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 특정 사실(입실시간 및 대기실 정보)이 누락되어 있어 정확성 점수가 낮아진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유용한 정보를 제공하고 있으며, 문법적으로도 우수하다. 그러나 원본 텍스트의 특정 사실이 누락되어 있어 점수가 다소 낮아졌다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 질문에 대한 직접적인 답변이 부족하여 완전한 적절성은 떨어진다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.6185509731147912</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>실기고사의 장소는 주로 해당 전공 또는 학과에서 진행됩니다. 하지만 정확한 장소와 시간은 각 모집단위별로 다를 수 있으므로, 공식 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 통해 최신 정보를 확인하시기 바랍니다.
+특히, 다음과 같은 점을 유의해 주세요:
+1. 실기고사는 일반적으로 동의대학교 내에서 진행됩니다.
+2. 각 모집단위별로 실기고사 장소가 다를 수 있으므로 공지사항을 확인하세요.
+3. 실기고사 날짜와 시간은 홈페이지를 통해 공시되므로, 해당 정보를 반드시 확인하시기 바랍니다.
+공식 입학 홈페이지에서 최신 정보를 얻는 것이 가장 안전하고 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 포함되어 있지 않으며, 실기종목, 장비 및 의복, 주의사항, 장소에 대한 정보가 추가로 제공되고 있지만, 원본 텍스트의 핵심 정보인 입실시간에 대한 내용이 누락되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 원본 텍스트는 입실시간에 대한 정보만을 제공하고 있지만, 생성된 응답은 실기종목과 관련된 세부사항을 포함하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하지만, 원본 텍스트의 핵심 내용인 입실시간에 대한 정보는 포함되어 있지 않아 관련성이 떨어집니다. 그러나 실기고사 준비에 대한 정보는 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 주제에 따라 잘 구성되어 있으며, 각 항목이 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 입실시간에 대한 내용을 포함하지 않으며, 추가된 정보가 사실인지 확인할 수 없기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 관련성은 어느 정도 있지만, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.3886693509113017</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. **실기종목**:
+   - 제자리 멀리뛰기 (240점, 24%)
+   - 메디신볼 던지기 (243점, 23%)
+   - Z-런 (230점, 23%)
+2. **장비 및 의복**:
+   - 운동복과 운동화를 착용해야 합니다.
+   - 스파이크나 축구화 등 특수화는 불가능하며, 신발바닥에 이물질 가칠 수 없습니다.
+3. **주의사항**:
+   - 실기 당일 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게는 해당 종목에 최저점수를 부여합니다.
+   - 각 실기종목별 2회 반칙자에게는 최저점수를 부여합니다.
+4. **장소**:
+   - 체육학과의 실기고사는 대학교 내에서 진행됩니다. 정확한 장소는 공지나 안내에 따르면 됩니다.
+따라서, 체육학과의 실기고사는 해당 학교 내에서 준비하고 실시해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 이루어지지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나, "2024년 2월 고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우 합격이 취소된다"는 내용은 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 추가된 정보(졸업예정자와 관련된 내용)가 원문에 포함되어 있지 않아 일관성이 떨어집니다. 원문에서 강조된 내용과는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수시 충원합격자 발표와 관련된 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나, 원문과의 연결성이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보의 대부분을 정확하게 반영하고 있지만, 추가된 정보가 원문에 없기 때문에 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 추가된 정보가 원문과의 맥락에서 벗어나 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.6011131554452623</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2024년 2월 고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우 합격이 취소되므로, 수시 충원합격자 발표 시에는 전화로 통보는 하지 않습니다. 
+수시 충원합격자는 다음과 같이 발표 및 등록을 진행해야 합니다:
+1. 발표 방식: 홈페이지를 통해 개별 조회
+2. 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 
+3. 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+따라서 합격자들은 반드시 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 홈페이지를 통해 발표된 결과를 확인해야 합니다. 전화 통보는 이루어지지 않으므로, 지원자는 홈페이지에서 직접 확인해야 합니다.
+만약 합격자들이 등록을 하지 못하면 등록포기로 간주되니 주의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 언급하고 있지만, 2024학년도에 대한 정보는 원본 텍스트에 포함되어 있지 않습니다. 따라서 일부 사실이 정확하지 않거나 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 2024학년도에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 일관성이 떨어집니다. 또한, 수시모집 결과를 확인하는 방법에 대한 추가 정보는 원본 텍스트와는 다른 방향으로 나아갑니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 수시모집 결과에 대한 정보가 없다는 점을 강조하는 대신 다른 방법을 제시하고 있습니다. 이는 주제와 관련이 있지만, 원본의 핵심 질문에 대한 직접적인 답변은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하지만, 2024학년도에 대한 정보는 원본에 포함되어 있지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 원본의 핵심 질문에 대한 직접적인 답변이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.724297865857129</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과에 대한 정보가 제공된 데이터 내에서는 직접 확인할 수 없습니다. 하지만, 제공된 데이터에서 2024학년도에 경찰행정학과가 학과 분리 또는 통합 등의 변화가 없음을 알 수 있습니다.
+만약 2023학년도의 결과를 알고 싶다면, 일반적으로 다음과 같은 방법을 통해 확인할 수 있습니다:
+1. 동의대학교 입학처 홈페이지에서 과거 모집결과를 찾아볼 수 있습니다.
+2. 교육부나 각 대학교의 공식 웹사이트에서 제공하는 학생모집통계시스템을 참조할 수 있습니다.
+3. 동의대학교 입학상담 센터에 직접 문의하여 확인할 수 있습니다.
+만약 이러한 정보가 필요하다면, 위의 방법들을 통해 확인해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문 내용을 대체로 잘 반영하고 있습니다. 그러나 일부 전형에서 수능 응시가 필요하지 않다는 추가 정보가 포함되어 있어, 원문과의 일치성은 다소 떨어지지만, 전반적으로 사실에 기반한 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 수능 응시가 필요하지 않은 전형에 대한 설명이 추가되어 있어 원문과의 일관성이 떨어집니다. 원문은 수능 응시가 필수적이라는 점을 강조하고 있으나, 생성된 응답은 예외를 언급하여 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 수능 응시 여부에 대한 정보를 제공하며, 관련 전형에 대한 구체적인 설명을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 연결되어 있습니다. 그러나 예외 사항을 언급하면서 원문과의 연결이 약해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 응시가 필수적이라는 원문 내용을 잘 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 그러나 원문과의 일치성에서 약간의 차이가 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 긍정적인 평가를 받을 수 있습니다. 그러나 원문과의 일관성에서 약간의 문제가 있어 완벽한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 높지만, 수능 응시가 필요하지 않은 전형에 대한 언급이 원문과의 의미적 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 설명이 포함되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있는 점이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.5576389598540958</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서는 수능을 필수적으로 응시해야 하는 전형이 대부분입니다. 그러나 일부 전형에서 수능 응시가 필요하지 않을 수도 있습니다.
+특히, 다음과 같은 전형들은 수능 응시를 요구하지 않습니다:
+1. **학생부교과(농어촌학생전형)**: 이 전형은 수능을 필수로 응시할 필요가 없습니다.
+2. **학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내)전형), 학생부종합(성인학습자(정원외)전형)**: 이들 전형에서도 수능 응시가 필요하지 않습니다.
+그러나 대부분의 전형에서는 수능을 응시해야 합니다. 특히, **가군 수능(일반학생전형), 나군 수능(일반학생전형), 다군 수능(일반학생전형)** 등은 수능 성적을 반영하기 때문에 반드시 수능을 응시해야 합니다.
+따라서 정시모집에서 수능 응시를 피하고자 한다면, 위와 같은 특별한 전형에 지원하는 것이 유리할 것입니다. 그러나 일반적으로는 수능 응시가 필수적입니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 일반적으로 지원하기 어렵다고 주장하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 정시 지원이 가능하다고 명확히 언급하고 있지만, 생성된 응답은 10년 전에 졸업한 경우 지원이 어렵다고 하여 서로 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 정시 지원에 대한 정보를 제공하고 있으나, 원문에서 강조한 모든 졸업생의 지원 가능성에 대한 내용을 간과하고 있습니다. 그러나 동의대학교의 특별 전형에 대한 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문에서 제시한 정보와의 연관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 상반된 정보를 포함하고 있습니다. 원문은 모든 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원문과의 관계가 약해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 의미적 일치가 부족하여 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.7330856691459705</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>10년 전에 고등학교를 졸업했다면, 일반적으로 정시 모집에서 지원하기는 어렵습니다. 대부분의 대학은 고등학교 졸업 후 3년 이내에 입학을 목표로 하고 있습니다.
+하지만 동의대학교에서는 몇 가지 특별한 전형이 있는데, 그 중 일부는 특정 조건을 충족하면 지원할 수 있습니다:
+1. **학생부교과(농어촌학생전형)**: 농어촌 지역에서 6년 또는 12년 과정을 이수하고 거주한 경우에 지원 가능합니다.
+2. **학생부종합(평생학습자전형, 성인학습자전형, 재직자전형)**: 만 30세 이상의 성인 학습자를 대상으로 하고 있습니다. 이 전형에서는 일반 고등학교 졸업 후 경력 등을 종합적으로 평가합니다.
+3. **조기취업형계약학과전형**: 일부 모집단위에서는 취업 계약을 맺은 재직자들을 대상으로 합니다.
+따라서, 10년 전에 고등학교를 졸업했다면 위의 특별한 전형 중 하나를 찾아보시는 것이 좋습니다. 각 전형의 지원 자격과 제출 서류 등을 꼼꼼히 확인하시기 바랍니다.
+더 자세한 정보가 필요하시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 2024학년도 정시 일정에 대한 주요 정보를 잘 반영하고 있으며, 대부분의 세부 사항이 정확하게 전달되었습니다. 그러나 '등록금 환불 신청'에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 일정과 일관되게 정보를 제공하고 있습니다. 다만, 일부 세부 사항이 생략되거나 간략화되어 있어 완전한 일관성은 다소 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 정시 모집 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 일정이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '등록금 환불 신청'과 같은 추가 정보는 원본 텍스트에 명시되어 있지 않아 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일부 세부 사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.7937714097253614</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+- **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감시간은 오후 6시까지입니다. 원서 접수 사이트는 [http://ipsi.deu.ac.kr](http://ipsi.deu.ac.kr) 또는 [http://www.uwayapply.com](http://www.uwayapply.com)를 통해 가능합니다.
+- **서류제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감시간은 오후 5시까지입니다. 서류 제출 대상자는 입학관리팀에서 지정한 방법으로 서류를 제출해야 합니다.
+- **&lt;가&gt;군 실기고사**: 2024년 1월 16일 (화)
+- **&lt;나&gt;군 실기고사**: 2024년 1월 17일 (수)
+- **합격자 발표 및 등록금 납부**:
+  - 최초 합격자 발표: 2024년 2월 2일 (금) 오후 2시
+  - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행 마감시간 내에 완료해야 합니다.
+  - 충원 합격자 발표 및 등록: 
+    - 1차: 2024년 2월 14일 (수) 오전 9시
+    - 2차: 2024년 2월 15일 (목) 오전 9시
+    - 3차 이후: 2024년 2월 15일 (목) 오후 7시 ~ 2024년 2월 20일 (화) 오후 6시까지
+- **등록금 환불 신청**: 2024년 2월 14일 (수) ~ 2024년 2월 20일 (화) 오후 12시까지
+이 일정은 변경될 수 있으므로, 최신 정보는 동의대학교 입학안내 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜, 방법, 기간 등 모든 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.8846524023152789</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 방법: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감시간 18시
+   - 접속 주소: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류제출**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 도착시간 17시까지
+   - 대상: 서류 제출이 필요한 모집단위
+4. **&lt;가&gt;군 실기고사**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 준비 안내: 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 대기실 및 입실시간 안내
+5. **&lt;나&gt;군 실기고사**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 준비 안내: 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 대기실 및 입실시간 안내
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표:
+     - 날짜: 2024년 2월 2일 (금) 14:00
+     - 방법: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령
+   - 최초 합격자 등록:
+     - 날짜: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+7. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표:
+     - 날짜: 2024년 2월 14일 (수) 09:00
+     - 방법: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령
+   - 1차 충원 합격자 등록:
+     - 날짜: 2024년 2월 14일 (수) 09:00 ~ 16:00
+   - 2차 충원 합격자 발표:
+     - 날짜: 2024년 2월 15일 (목) 09:00
+     - 방법: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령
+   - 2차 충원 합격자 등록:
+     - 날짜: 2024년 2월 15일 (목) 09:00 ~ 16:00
+8. **3차 이후 충원 합격자 발표 및 등록**:
+   - 날짜: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+   - 방법: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령
+이 일정은 일반적으로 동의대학교 정시 모집의 주요 단계를 포함하고 있으며, 지원자는 이 일정을 준수하여 원활한 지원 절차를 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원할 수 있는 전형에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 수능 미응시자는 지원이 불가능하다고 명시되어 있으나, 생성된 응답에서는 여러 전형에서 지원이 가능하다고 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 수능 미응시자는 지원이 불가능하다고 명시되어 있는데, 생성된 응답은 수능 미응시자가 지원할 수 있는 전형을 나열하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 수능 미응시자가 지원할 수 있는 전형에 대한 정보를 제공하고 있습니다. 그러나 이 정보가 사실이 아니기 때문에 관련성은 있지만 정확성은 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 명시된 사실과 크게 다릅니다. 수능 미응시자는 지원이 불가능하다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 제공된 정보가 사실이 아니기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 내용의 정확성 문제로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.6395682508738127</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능을 미응시한 지원자가 지원할 수 있는 전형으로는 다음과 같은 것들이 있습니다:
+1. **실기/실적 위주 전형**
+   - 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과: 이들 학과에서는 수능을 미응시한 지원자가 실기 및 실적 평가를 통해 지원할 수 있습니다. (실기/실적 위주 전형)
+2. **학생부교과(농어촌학생전형)**
+   - 농어촌학생전형은 수능을 미응시한 지원자도 지원이 가능합니다.
+3. **학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내·외)전형), 학생부종합(재직자전형), 학생부종합(조기취업형계약학과전형)**
+   - 이들 전형은 수능을 미응시한 지원자도 지원이 가능합니다. 다만, 각 전형별로 서류평가와 면접평가가 포함되므로, 지원 자격 및 평가 기준을 잘 확인해야 합니다.
+수능을 미응시한 지원자가 이러한 전형에서 지원하려면 해당 전형의 세부 조건과 요구 사항을 충족해야 합니다. 각 전형별로 수능 미응시자의 지원 가능성을 확인하기 위해서는 동의대학교 공식 홈페이지나 입학처에 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 구체적인 정보를 잘못 해석하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있으며, 전년도 충원 합격이 36명까지 이루어졌다고 언급하고 있습니다. 그러나 생성된 응답은 2024년도 모집 정보를 바탕으로 3차 이후에 이루어진다고 주장하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시되어 있는데, 생성된 응답은 3차 이후에 이루어진다고 주장하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으나, 원문에서 제공된 정보와는 다소 차이가 있습니다. 그러나 주제와 관련된 내용을 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 충원 합격 차수에 대한 잘못된 해석이 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문과의 불일치로 인해 의미적으로 적절하지 않은 부분이 있습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.627797118654825</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024년도 모집 정보를 바탕으로, 전자공학과의 충원 합격은 3차 이후로 이루어집니다. 
+특히, "합격자 발표 및 등록금 납부 충원 합격자 3차 이후 (개별 전화 통보) 발표"와 "합격자 발표 및 등록금 납부 충원 합격자 3차 이후 (개별 전화 통보) 등록" 등의 일정이 주어졌습니다. 이는 최초 합격자와 1차, 2차 충원 합격자를 포함하여 3차 이후에 추가로 합격자를 선발한다는 것을 의미합니다.
+따라서 전년도의 경우에도 유사한 방식으로 진행되었을 것으로 추정할 수 있습니다. 하지만 정확한 정보는 전년도 모집 안내를 참조하거나 대학 입학관리팀에 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 연락처를 잘못 제공하고 있으며, 유웨이어플라이의 전화번호를 언급하고 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으므로 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트의 연락처 정보와는 전혀 다른 내용을 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 입학관리팀의 연락처와는 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전반적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 되어 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 부족합니다. 따라서 일관성 점수가 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교와 관련된 정보를 제공하지만, 원본 텍스트의 의미와는 다르게 해석될 수 있는 내용이 포함되어 있습니다. 따라서 의미 적합성이 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.5450814416554772</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학처의 연락처 번호는 다음과 같습니다:
+(주)유웨이어플라이 : 1588-8988 (http://www.uwayapply.com)
+또한, 인터넷 원서접수와 관련된 문의사항은 이 번호를 통해 언제든지 문의할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, "충원합격은 되었으나"라는 표현이 원본의 의미를 약간 왜곡할 수 있습니다. 원본에서는 충원합격 통보가 어려운 경우에 대한 설명이므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "충원합격은 되었으나"라는 표현이 원본의 의도와 다소 다르게 해석될 수 있어 약간의 일관성 문제를 나타냅니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 핵심 사항을 잘 다루고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 다만, "전화 연락 두절(3회 통화)" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 흐름이 자연스럽습니다. 그러나 일부 문장에서 약간의 중복이 있어 완전한 일관성을 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, "충원합격은 되었으나"라는 표현이 원본의 의미를 완전히 정확하게 전달하지 못할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 의미 왜곡이 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완전한 명확성에는 미치지 못합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.916457093734471</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 어려운 경우, 충원합격은 되었으나 등록 의사가 없는 것으로 간주됩니다. 따라서 지원자는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+즉, 3차 이후 충원합격자 발표 기간 동안 전화를 받지 못한 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되며, 이로 인해 합격 취소될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류와 제출 기간, 제출 장소에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 필요한 서류 목록과 제출 정보에 대해 명확하게 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 잘 구성된 문장으로 이루어져 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.8625034346430428</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. **지원자 본인의 가족관계증명서** (1부)
+2. **지원자 본인, 부모의 주민등록초본** (각 1부, 총 3부)
+3. **중학교 학교생활기록부** (1부) - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+4. **고등학교 학교생활기록부** (1부) - 학생부 온라인 제공 비대상 교 및 미동의자는 제출 필요
+추가로, 부모가 사망한 경우:
+- **사망한 부 또는 모의 기본증명서** (기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부)
+또는 부모가 이혼한 경우:
+- **친권이 있는 부 또는 모의 혼인관계증명서(상세)** (1부)
+- **본인의 기본증명서(상세)** (1부)
+제출 기간은 2024년 1월 3일(수)부터 1월 12일(금)까지 17:00까지 도착분에 한하며, 제출 장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀입니다.
+제출서류 미제출자는 불합격 처리되므로 반드시 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 제출해야 할 서류 목록에서 일부 정보를 생략하고 있으며, '가족관계증명서'와 같은 추가 서류를 언급하고 있지만, 원본 텍스트에는 포함되어 있지 않습니다. 또한, '총 3부'라는 표현은 원본 텍스트의 서류 수와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 서류의 수와 종류에 대한 정보가 일관되지 않습니다. 특히, '고교 졸업증명서'와 '주민등록초본' 외에 다른 서류를 언급하는 부분에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 제출해야 할 서류에 대한 정보를 제공하고 있습니다. 그러나 일부 불필요한 정보가 포함되어 있어 완전한 관련성은 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 '제출해야하는'이라는 표현에서 띄어쓰기가 잘못되어 있어 약간의 유창성 문제가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 제출에 대한 정보를 명확하게 전달하고 있습니다. 그러나 일부 정보가 추가되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 서류의 수와 종류에 대한 정확성이 부족합니다. 특히, '가족관계증명서'와 같은 추가 서류는 원본에 없으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 추가 정보가 포함되어 있어 의미의 일관성이 약간 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.8568952271266734</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+- 고교 졸업증명서, 지원자 본인 초본 각 1부 (총 3부)
+이러한 서류들은 주민등록초본과 가족관계증명서 등 다른 서류들과 마찬가지로 제출기간 내에 제출해야 하며, 제출장소는 동의대학교 입학관리팀입니다.
+추가적으로, 최종 등록자 중 고교 졸업예정자는 2024년 2월 16일까지 졸업증명서를 추가로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교 정시 모집 전형에 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있습니다. 모든 정보가 일치하며, 추가적인 전형 목록도 제공하고 있어 사실성을 잘 유지하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 기회균등 전형이 존재하지 않는다는 주장을 반복하고 있습니다. 정보가 서로 충돌하지 않고 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊습니다. 기회균등 전형의 부재에 대한 질문에 대해 명확하게 답변하고 있으며, 관련된 전형 목록도 제공하여 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있습니다. 문장 구조가 명확하고 읽기 쉬워서 유창성이 뛰어납니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다. 모든 정보가 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6484772200254062</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 저소득 기회균등 전형을 실시하지 않습니다. 제공된 정보에 따르면, 동의대학교는 현재 다음과 같은 전형들을 운영하고 있으며, 저소득 기회균등 전형은 포함되어 있지 않습니다.
+- 수능(일반학생전형)
+- 실기/실적(일반학생전형) 
+- 실기/실적(경기실적우수자전형)
+- 학생부교과
+- 학생부종합
+따라서 정시모집에서 저소득 기회균등 전형이 선발되지 않는 것으로 보입니다. 지원자는 해당 대학의 정시모집 전형 중 적합한 전형을 선택하여 지원하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 탐구 영역의 등급이 절사되지 않는다고 주장하지만, 원본 텍스트에서는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 없다고 명시하고 있습니다. 따라서 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 절사 여부에 대한 명확한 정보를 제공하지 않고 있습니다. 원본 텍스트는 입학안내 홈페이지에서 확인하라고 안내하고 있지만, 생성된 응답은 이를 무시하고 절사되지 않는다고 단정짓고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 탐구 영역의 등급 반영 방법에 대한 정보를 제공하고 있지만, 원본 텍스트의 질문에 대한 직접적인 답변은 아닙니다. 그러나 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 단계로 나누어 설명하고 있지만, 원본 텍스트의 질문과의 연결이 부족하여 일관성이 떨어집니다. 정보가 잘 정리되어 있으나, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 수능 탐구 영역의 등급이 절사되지 않는다고 주장하지만, 원본 텍스트에서는 그러한 정보가 없다고 명시하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 정보의 정확성과 일관성이 부족합니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 탐구 영역의 등급 반영 방법에 대한 설명을 제공하지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명을 제공합니다. 그러나 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.5253935012194167</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 탐구 영역의 등급은 절사되지 않습니다. 즉, 사탐(사회탐구) 2과목의 평균이 2.5등급이라면 그대로 2.5등급으로 반영됩니다.
+반영 방법은 다음과 같습니다:
+1. 탐구 영역에서 최고 등급과 두 번째로 높은 등급을 선택합니다.
+2. 이 두 과목의 등급 점수를 합산한 후 평균을 계산합니다.
+3. 평균이 소수점이 나온다면 그대로 반영합니다.
+따라서 2.5등급이 나오더라도 절사하지 않고 그대로 2.5등급으로 처리됩니다.
+예를 들어:
+- 최고 등급: 4등급
+- 두 번째로 높은 등급: 2.5등급
+평균 = (4 + 2.5) / 2 = 3.25
+이 경우 평균 3.25는 그대로 반영됩니다.
+따라서 수능 탐구 영역의 등급 평균은 소수점 이하를 절사하지 않고 그대로 반영합니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 발표에 대한 정보를 추가했지만, 최초 합격자 발표일이 원본 텍스트에 포함되어 있지 않으며, 3차 발표에 대한 정보가 다소 모호하게 표현되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 최초 합격자 발표와 같은 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트의 정보와 충돌하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본의 핵심 내용과 직접적으로 관련이 없기 때문에 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있지만, 추가된 정보로 인해 약간의 혼란이 발생할 수 있습니다. 그러나 전체적으로는 잘 구성되어 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 차이로 인해 정확성이 떨어집니다. 특히 최초 합격자 발표일과 관련된 정보는 원본에 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과 완전히 일치하지는 않습니다. 추가된 정보가 맥락을 약간 벗어나 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다. 그러나 주요 내용은 명확하게 전달됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.6994372112431652</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2024년 동계학기 정시 모집의 &lt;나&gt;군 충원 합격자는 다음과 같은 단계로 발표됩니다:
+1. 최초 합격자 발표 및 등록 (2024. 02. 02.(금) 14:00)
+2. 1차 충원 합격자 발표 및 등록 (2024. 02. 14.(수) 09:00 ~ 16:00)
+3. 2차 충원 합격자 발표 및 등록 (2024. 02. 15.(목) 09:00 ~ 16:00)
+따라서 총 3차로 충원 합격자가 발표됩니다.
+추가적으로, 3차 이후에는 개별 전화 통보를 통해 합격자에게 연락이 가며, 이 시점부터는 최종 합격자들이 결정됩니다 (2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지).</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, e-비즈니스학과의 입학 기준에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 수능 성적에 대한 정보를 제공하고 있지만, 생성된 응답은 다군 일반 학생형의 입학 기준에 대한 내용을 다루고 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트는 e-비즈니스학과의 수능 성적에 대한 정보를 제공하는 반면, 생성된 응답은 다군 일반 학생형의 입학 기준에 대한 내용을 설명하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, e-비즈니스학과의 수능 성적에 대한 질문에 대한 적절한 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 비해 유창성 점수를 부여했습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전혀 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 내용의 적절성 부족으로 인해 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.4927033893644823</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看相关的信息。根据提供的信息，我们可以参考以下几点：
+1. **多军普通类型（多军一般学生型）的录取标准**：
+   - 多军普通类型的录取主要依赖于高考成绩。
+   - 表格显示：多军普通类型的所有招生单位均采用100%的高考成绩进行录取。
+2. **e商业学系的具体情况**：
+   - e商业学系属于上经学院（人文社会）系，因此适用多军普通类型的录取标准。
+   - 从表格中可以看到，e商业学系的招生计划为7人。
+3. **高考分数与录取的关系**：
+   - 表格显示，多军普通类型按高考总分进行排序录取。
+   - e商业学系的具体录取分数线需要参考当年的实际录取情况或学校发布的具体分数线信息。
+4. 从提供的信息来看，e商业学系的录取标准主要依赖于高考成绩。如果考生在高考中的英语成绩为4.6（假设这里的“4.6”是指英语等级），那么我们需要知道具体的分数换算方法和该分数是否达到多军普通类型的最低录取分数线。
+**结论：**
+- 仅凭提供的信息，我们无法确定一个具体分数能否确保录取。需要参考当年的实际录取分数线。
+- 建议考生关注学校发布的最新招生简章或咨询学校的招生办公室以获取准确的录取分数线和详细要求。
+因此，建议您查看具体的多军普通类型e商业学系的最低录取分数线，并结合自己的高考成绩来判断是否有可能被录取。如果不确定，可以直接联系学校招生办进行确认。</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 언급하고 있으며, 정시 등급 5.3에 대한 합격 가능성을 논의하고 있습니다. 그러나 일부 세부사항(예: 수능 최저 기준, 전형 요소 반영 비율 등)은 원본 텍스트에 명시되어 있지 않으므로, 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가적인 정보(예: 전형 유형, 모집 인원 등)가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 원본 텍스트의 주요 주제를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되어 있어 원본 텍스트와의 연결이 약해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있지만, 추가된 정보가 원본 텍스트와의 일치를 완전히 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 긴 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.6839045855906771</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 e비즈니스학과의 모집요건을 확인해보겠습니다.
+1. **e비즈니스학과의 전형 유형**: 실기/실적 위주 전형입니다.
+2. **전형 요소 반영 비율**:
+   - 실기 70%
+   - 실적 30%
+3. **수능 최저 기준**: 수능 최저 기준은 없으므로, 주로 실기 성적이 중요합니다.
+4. **e비즈니스학과의 모집인원 및 지원 인원**:
+   - 모집인원: 10
+   - 지원 인원: 89
+   - 경쟁률: 8.90
+5. **성적 분석**:
+   - e비즈니스학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균은 317.20, 표준 편차는 7.56입니다.
+   - 수능 등급 평균은 3.20, 표준 편차는 1.24입니다.
+6. **성적 비교**:
+   - 정시 등급 5.3은 대략 수능 점수로 90점대 중반에서 100점대 초반 정도를 의미합니다.
+   - e비즈니스학과의 평균 수능 점수는 317.20으로, 이보다 높거나 비슷한 점수가 필요합니다.
+**결론**: 정시 등급 5.3은 e비즈니스학과의 평균 수능 점수를 크게 밑돌아 보이므로, 최초 합격 가능성은 낮습니다. 그러나 실기 성적이 매우 뛰어나다면 합격 가능성은 열려 있습니다.
+추가적으로, 실기 성적을 확인하고 지원자의 전체 경쟁력을 평가하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 충원합격에 대한 정보를 제공하고 있지만, 원본 텍스트에서 명시된 "예비 38번이라면 예비 합격할 가능성이 낮습니다"라는 사실을 무시하고 있습니다. 또한, 경쟁 비율과 관련된 정보는 원본 텍스트에 포함되어 있지 않으며, 잘못된 해석을 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주장을 반박하는 내용을 포함하고 있으며, 예비 38번의 가능성에 대한 원본의 결론과 일치하지 않습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 관련 정보를 제공하려고 하지만, 원본 텍스트의 핵심 주제인 예비 합격 가능성에 대한 직접적인 답변을 제공하지 않고 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 원본의 주제와 관련된 정보가 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보와 해석을 포함하고 있습니다. 예비 38번의 합격 가능성에 대한 원본의 주장을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 해석을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 원본 텍스트와의 관련성이 부족하여 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.6007671037035744</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要更多的信息。特别是您当前的成绩和排名情况。不过，根据提供的数据，我们可以做一些分析。
+首先，从“e비즈니스학과”（电子商务学）的录取情况来看：
+- 招生人数：10人
+- 报名人数：89人
+- 竞争比：8.9:1
+这意味着竞争非常激烈。根据您提供的信息，“e비즈니스학전공 예비 38번”意味着您的排名是第38位。
+从历史数据来看，前20%左右的学生通常会被录取（因为10个名额）。因此，排名第38位可能处于边缘位置，但仍然有可能被录取。具体来说：
+- 如果您在国语、数学和英语等科目中的成绩较高，并且综合评价良好，则有较大机会。
+- 另一方面，如果您的成绩接近最低分数线或排名稍低一些，则可能会被其他学生超越。
+建议：
+1. 确认自己的成绩是否处于较高的水平。
+2. 检查是否有任何加分项（如特长、社会实践等）可以提高竞争力。
+3. 保持与学校招生办公室的沟通，了解最新的录取信息和政策变化。
+综上所述，排名第38位的学生有被录取的可能性，但具体能否预录还需结合个人具体情况和其他因素来判断。建议您密切关注学校的最新通知，并做好充分准备。</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 3.44라는 성적이 합격 가능성에 미치는 영향을 잘 설명하고 있습니다. 그러나 일부 세부 사항(예: 평균 국어+수학+탐구 점수)은 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가된 정보(예: 평균 점수와 표준 편차)는 원본 텍스트에 포함되어 있지 않아 일관성이 떨어질 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문자의 성적에 대한 합격 가능성을 평가하는 데 필요한 모든 정보를 제공합니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 명시되어 있지 않아 완전한 정확성은 부족합니다. 
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 질문자의 상황에 적절한 조언을 제공합니다. 그러나 일부 추가 정보는 원본과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.6738257744555791</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분히 경쟁력을 갖추고 있는 것은 아닙니다. 하지만 최종 등록자들의 성적 분포를 보면, 일부 학생들이 비교적 낮은 점수로도 합격하고 있습니다.
+간호학과의 경우, 2024년 최종등록자의 평균 국어+수학+탐구(2개) 표준 변환 점수는 다음과 같습니다:
+- 평균: 318.67
+- 표준 편차: 9.35
+당신의 성적 3.44은 이 평균보다 약간 낮습니다. 하지만 표준 편차가 작은 것을 고려하면, 여전히 경쟁력이 있습니다.
+다음 사항들을 주의 깊게 확인해보세요:
+1. **경쟁률**: 간호학과는 매우 높은 경쟁률을 보입니다 (최종등록자 22명 중 지원자 145명). 따라서 성적이 조금 낮더라도 다른 요소들이 중요할 수 있습니다.
+2. **면접 및 서류 평가**: 동의대학교 간호학과는 면접과 서류 평가를 통해 합격자를 선발합니다. 이 부분에서 좋은 점수를 받을 수 있다면, 성적이 조금 낮더라도 합격 가능성은 있습니다.
+3. **추천서 및 자소서**: 추천서와 자기소개서 등 서류평가에서도 긍정적인 평가를 받는다면, 성적 외의 요소들이 큰 역할을 할 수 있습니다.
+4. **면접 준비**: 면접에서는 자신의 열정과 의지, 간호사로서의 적합성을 잘 전달하는 것이 중요합니다.
+결론적으로, 3.44이라는 성적이 절대 낮은 것은 아니지만, 경쟁률이 높고 다른 요소들이 중요한 만큼, 면접 및 서류 평가에서 좋은 결과를 얻는 것이 합격 가능성 향상에 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 제공하지 않고, 대신 경쟁률과 최종 합격자 평균 점수에 대한 정보를 제시합니다. 그러나 주어진 정시 성적 2.52가 간호학과의 평균 등급보다 높은 성적이라는 원문과의 일치성이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 상충하는 내용을 포함하고 있습니다. 원문에서는 2.52의 성적이 간호학과의 평균 등급보다 높다고 언급하지만, 생성된 응답에서는 이 성적이 최종 합격자 평균 점수에 미치지 못한다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원문에서 질문한 정시 성적에 대한 직접적인 답변이 부족합니다. 따라서 관련성은 있지만, 핵심 질문에 대한 직접적인 답변이 부족하여 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 떨어져서 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있으며, 정시 성적 2.52에 대한 해석이 잘못되었습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락에서 벗어난 해석이 포함되어 있어 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 원문과의 연결성이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.6376187647952593</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 수능 최소 경쟁률과 점수를 확인해보겠습니다.
+간호학과는 다음과 같은 정보가 있습니다:
+- 모집 인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+- 최종 합격자 평균 표준 변환 점수: 357.63
+간호학과의 최종합격자의 평균 표준변환점수가 357.63으로, 이는 매우 높은 점수입니다.
+당신이 제공한 성적이 2.52라면, 즉 2등급이라면, 이는 간호학과의 최종합격자 평균 점수(357.63)에 크게 미치지 못합니다. 
+따라서, 현재로서는 정시 성적 2.52로 동의대학교 간호학과를 최종 합격시키기는 어려울 것으로 보입니다.
+하지만 입학사정관제나 기타 개인적인 특성 등을 고려할 수 있으므로, 전형 요소별 평가 결과와 면접 성적 등 다른 평가 항목을 잘 준비한다면 기회는 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.7의 성적이 좋은 점수라고 언급하지만, 원문에서는 3.7이 간호학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서, 이 부분에서 사실과 일치하지 않으며, 전반적으로 원문에서 제공한 정보와 상충하는 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 간호학과의 평균 등급과 관련된 정보와 일치하지 않습니다. 3.7의 성적이 좋다고 언급하면서도, 원문에서는 이 성적이 평균보다 낮다고 명시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 합격하기 위한 여러 요소를 고려해야 한다고 설명하고 있으며, 이는 원문에서 제시한 질문과 관련이 있습니다. 그러나 원문에서 제공한 구체적인 데이터와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 나열하며 논리적으로 연결되어 있습니다. 그러나 원문과의 연결성이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 3.7의 성적이 좋다고 주장하지만, 원문에서는 이 성적이 평균보다 낮다고 명시하고 있어 정확성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 사실성과 일관성이 부족하여 다차원적인 품질이 낮습니다. 원문과의 불일치가 여러 차원에서 나타납니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과에 대한 정보를 제공하고 있으나, 원문과의 의미적 일치가 부족하여 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.6176762954952957</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>3.7의 성적은 상당히 좋은 점수입니다만, 간호학과에 정시로 합격하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집인원 및 경쟁률**: 간호학과의 모집인원과 경쟁률을 확인해야 합니다. 경쟁률이 높다면, 3.7이라는 성적만으로 합격하기는 어렵습니다.
+2. **수능 최저기준**: 일부 대학은 수능 최저기준을 설정하고 있을 수 있습니다. 만약 간호학과가 수능 최저기준을 요구한다면, 해당 기준을 충족해야 합니다.
+3. **전형별 특성**: 정시 전형의 경우 주로 수능 성적이 중요합니다. 하지만 일부 대학에서는 학생부 교과 성적도 고려할 수 있으므로, 학생부 성적도 확인해 보세요.
+4. **추천서 및 자기소개서 등 추가 서류**: 일부 전형에서는 추천서나 자기소개서 등의 서류가 필요할 수 있습니다. 이들 서류를 잘 준비하면 점수만으로는 부족한 부분을 메울 수 있습니다.
+5. **면접 성적**: 간호학과는 종종 면접 과정도 중요하게 평가합니다. 면접 준비를 철저히 하여 좋은 결과를 얻어야 합니다.
+6. **추천사 및 특기사항**: 추천사나 특기사항 등이 있다면 이를 잘 활용하여 지원자의 전반적인 능력을 보완할 수 있습니다.
+결론적으로, 3.7의 성적만으로 간호학과에 정시로 합격하기는 어렵지만, 경쟁률과 모집인원, 그리고 해당 대학의 전형 특성을 잘 파악하고 준비한다면 가능성이 있을 수 있습니다. 따라서, 상세한 정보를 확인하고 철저히 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 지원자 수, 경쟁률에 대한 정보를 포함하고 있으며, 수능 성적 2.58에 대한 합격 가능성을 논의하고 있습니다. 그러나 일부 정보는 출처 텍스트에 명시된 내용과 다를 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출처 텍스트의 정보와 일부 일치하지만, 경쟁률과 같은 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, 수능 성적이 평균보다 높다고 언급한 부분과 실제 성적 비교에서의 해석이 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하며, 간호학과의 합격 가능성에 대한 논의가 주제를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 수능 성적에 대한 해석에서 약간의 부정확성이 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 일부 정보가 추가되어 원래의 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.6483162337782538</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집인원과 지원 인원을 보면 다음과 같습니다:
+- **모집 인원**: 22명
+- **지원 인원**: 145명
+- **경쟁률**: 6.59
+간호학과는 매우 경쟁이 치열한 학과로 알려져 있습니다.
+**수능 최저 기준**:
+- 수능 최저기준은 없으므로, 수능 성적이 2.58이라면 최저 점수보다 높습니다.
+- 그러나 경쟁률이 매우 높기 때문에, 단순히 수능 점수만으로 합격을 보장할 수는 없습니다.
+**합격 가능성**:
+1. **전체 지원자들의 성적 분포**: 2024학년도 최초합격자의 수능 표준 변환점수 평균은 357.63입니다.
+2. **성적이 높은 지원자들**: 많은 지원자가 높은 점수를 받았기 때문에, 2.58이라는 성적은 상대적으로 낮습니다.
+따라서, 수능 성적이 2.58이라면 간호학과에 정시 전형으로 합격하기는 어렵다고 볼 수 있습니다. 그러나 최종 합격 여부는 면접 결과 등 다른 평가 요소도 포함되므로, 모든 가능성은 열려 있다고 할 수 있습니다.
+**추천 사항**:
+1. **면접 준비**: 면접 준비를 철저히 하세요.
+2. **추천서 및 자기소개서 작성**: 추천서와 자기소개서 등을 잘 작성하여 학교생활과 전공 적합성을 강조하세요.
+3. **추가 지원**: 다른 대학이나 학과에서도 지원해 보는 것이 좋습니다.
+결론적으로, 수능 성적이 2.58이라면 간호학과에 정시로 합격하기는 어렵지만, 모든 가능성은 열려 있다고 할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 일부 반영하고 있지만, 원본의 내용과는 다르게 중국어로 작성되어 있으며, 원본의 구체적인 정보(예비 7번의 합격 가능성)에 대한 명확한 언급이 부족하다. 따라서 사실성 점수는 낮게 평가된다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족하다. 원본에서는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그에 대한 명확한 결론을 제시하지 않고 여러 요인에 따라 달라질 수 있다고 언급하고 있다. 이로 인해 일관성 점수는 낮다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련된 정보를 제공하고 있지만, 원본의 핵심 질문에 대한 직접적인 답변이 부족하다. 원본의 질문은 예비 7번의 합격 가능성에 대한 것이지만, 생성된 응답은 더 일반적인 정보와 조언을 제공하고 있다. 따라서 관련성 점수는 중간 정도로 평가된다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없다. 그러나 중국어로 작성된 점이 한국어 사용자에게는 다소 불편할 수 있다. 전반적으로 유창성 점수는 높게 평가된다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 흐름과 논리적 연결이 부족하다. 원본의 질문에 대한 명확한 답변이 없기 때문에 일관된 구조를 갖추지 못하고 있다. 따라서 일관성 점수는 중간 정도로 평가된다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본의 구체적인 사실을 정확하게 반영하지 않으며, 예비 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않는다. 이로 인해 정확성 점수는 낮게 평가된다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 기록하고 있으며, 원본 텍스트와의 관계가 약하다. 따라서 다차원 품질 점수는 낮게 평가된다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하지 않다. 원본의 질문에 대한 직접적인 답변이 부족하고, 정보가 불필요하게 복잡하게 제시되고 있다. 따라서 의미 적합성 점수는 낮게 평가된다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기에는 무리가 없지만, 원본의 질문에 대한 명확한 답변이 부족하여 이해하기 어려운 부분이 있다. 따라서 이해 가능성 점수는 중간 정도로 평가된다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.5715052613455972</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要查看相关的信息。根据您提供的数据表，“게임공학과”的相关信息如下：
+```
+ICT융합공과대학 / 게임공학과 / 3 / 16 / 5.33 / 3 / { 317.77 / 2.51 } / { 4.33 / 0.94 } / { 4.87 / 0.17 } / { 430.10 / 5.32 } /
+```
+从这个信息中，我们可以知道：
+- 招生人数（모집 인원）：3
+- 报名人数（지원 인원）：16
+- 竞争比（경쟁률）：5.33
+根据这些数据，竞争非常激烈。您提到的预估号码是7，这在报名者中排名第7。
+但是是否能录取取决于多种因素，包括您的综合成绩、排名以及学校的具体录取规则等。通常情况下，如果招生名额有限而申请人数较多，那么即使预估号码靠前，也不一定能保证录取。
+建议您密切关注学校的后续通知和公告，并按照要求完成所有必要的步骤。如果有任何疑问，最好直接联系学校进行确认。</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 성적 4.16에 대한 해석을 제공하지만, 수능 최저 기준에 대한 정보가 부족하여 정확한 사실을 반영하지 못하고 있습니다. 또한, 영어 등급을 3등급으로 추정하는 부분은 다소 주관적입니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 수능 성적을 기반으로 한 추가 합격 가능성에 대한 해석이 원본 텍스트의 내용과 다소 상충합니다. 원본에서는 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 가능성이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 성적에 대한 분석을 제공하고 있습니다. 그러나 원본에서 언급된 추가 합격에 대한 예측이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길고 복잡하여 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 수능 성적에 대한 해석이 원본과 다르게 제시되어 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 응답에서 제시된 수능 성적 해석은 다소 주관적이며, 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 특히, 수능 최저 기준에 대한 언급이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 해석이 주관적이어서 완전한 적합성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.6692388247250406</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 수능 영어 등급점수가 대략 3등급 정도를 의미합니다. 동의대학교 게임공학과의 경우, 전형요소 반영비율을 살펴보면 다음과 같습니다:
+- 국어: 25%
+- 수학: 25%
+- 영어: 25%
+- 탐구: 25%
+수능 성적이 4.16이라면, 영어 등급점수가 대략 3등급으로 추정됩니다.
+예를 들어, 국어와 수학은 평균적인 점수를 가정하고, 탐구는 중간 정도의 점수를 가정하겠습니다. 그러면 다음과 같은 점수를 가정할 수 있습니다:
+- 국어: 100점 (가정)
+- 수학: 100점 (가정)
+- 영어: 3등급 (대략 95점)
+- 탐구: 4등급 (대략 85점)
+이렇게 계산하면, 수능 점수 합은 대략:
+(100 + 100 + 95 + 85) / 4 = 380 / 4 = 95
+이 점수는 동의대학교 게임공학과의 수능 최저 기준을 크게 밑돌고 있습니다. 따라서, 이 수능 성적만으로는 추가 합격 가능성은 매우 낮습니다.
+추가적으로 서류평가와 면접 등 다른 전형요소를 고려해야 하지만, 현재 주어진 정보로는 정시 전형으로 게임공학과에 합격하기는 어려울 것으로 보입니다. 
+더 좋은 결과를 얻기 위해서는:
+1. 추가 수능 공부
+2. 서류 준비 (특히 진로와 관련된 활동)
+3. 면접 준비
+등을 철저하게 해야 할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 전혀 반영하지 않고 있으며, 관련된 정보가 아닌 다른 내용을 포함하고 있습니다. 원본 텍스트에서 제공된 경영정보학과의 평균 등급과 합격 가능성에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용과는 전혀 다른 방향으로 나아가고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있으나, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 모든 품질 차원에서 매우 낮은 점수를 받으며, 원본 텍스트와의 관련성이 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있으나, 한국어 사용자가 이해하기에는 적절하지 않은 언어로 작성되어 있어 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.5925446361928479</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息。根据提供的信息，我们可以参考以下几点来判断是否有可能成为初审合格者：
+1. **成绩要求**：通常，初审合格者的成绩会达到一定的分数线。您提到的3.75分（假设是GPA）是一个相对较高的分数。
+2. **招生计划和竞争情况**：每个专业的招生人数、实际报名人数以及最终的竞争比例都会影响是否能够成为初审合格者。
+3. **其他因素**：
+   - 个人特长或特殊才能。
+   - 是否符合特定的申请资格条件（如某些专业可能有额外的要求）。
+   - 学校的具体录取政策和标准。
+根据您提供的信息，如果您的成绩是3.75，并且假设这是GPA的话，这个分数在大多数情况下应该是可以满足初审合格的标准。但是，具体是否能够成为初审合格者还需要参考具体的招生计划、报名人数以及学校的录取分数线等信息。
+建议您可以查看学校官网或联系招生办公室获取更详细的信息和确认。如果还有疑问，可以直接访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取最新的招生政策和具体要求。</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보와 가정이 포함되어 있습니다. 원본 텍스트는 경영정보학과의 평균 등급과 합격 가능성에 대한 구체적인 정보를 제공하고 있지만, 생성된 응답은 일반적인 정보와 가정을 바탕으로 한 분석을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 특정한 수치와 결론을 제시하는 반면, 생성된 응답은 일반적인 상황을 가정하고 분석하는 방식으로 원본의 내용을 무시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주어진 질문에 대한 직접적인 답변을 제공하지 않으며, 원본의 핵심 정보를 간과하고 있습니다. 따라서 관련성 점수는 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 연관성이 부족하여 전체적인 일관성이 떨어집니다. 원본의 내용을 반영하지 않기 때문에 일관된 흐름을 유지하기 어렵습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 가정에 기반한 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 관계가 매우 약합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 정보와 가정을 포함하고 있습니다. 따라서 의미적 적절성 점수는 낮습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 이해하기 어려운 부분이 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.627287680192259</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息。根据您提供的信息，“경영정보학과”（经营信息学部）属于“상경대학”的一个专业，并且该专业的招生方式是通过一般学生型考试（일반학생전형）。我们还需要参考以下几点来判断是否有可能：
+1. **招生人数**：需要知道该专业的招生名额。
+2. **成绩要求**：了解该专业的最低录取分数线和具体的成绩要求。
+3. **竞争情况**：了解其他考生的平均分数和其他相关数据。
+根据您提供的信息，我将假设一些常见的情况来进行分析。通常情况下，一般学生型考试（일반학생전형）会参考以下几个因素：
+- 国语 (국어) + 数学 (수학) + 两门选修课 (탐구, 可能是社会或科学) 的标准转换分数总和。
+- 英语等级 (영어 등급)。
+假设该专业的最低录取分数线为4.0（这是一个假设的数值，实际数值需要根据具体招生简章确定），并且您提供的成绩为4.2，则您的成绩超过了最低分数线。但是，还需要考虑其他因素如竞争情况、选修课的成绩等。
+如果该专业没有特别严格的限制，并且您的成绩在合理范围内，那么作为首次注册者（최초등록자）是有可能被录取的。但具体能否录取还需参考具体的招生简章和最终的录取分数线。
+建议您查看东国大学官方网站上的最新招生信息或直接咨询学校招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보를 왜곡하고 있으며, 경영정보학과의 평균 등급과 관련된 구체적인 수치를 제공하지 않고 있습니다. 또한, 원본 텍스트에서 제시된 합격 가능성에 대한 결론을 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없으며, 원본에서 제시된 정보와 상충하는 내용을 포함하고 있습니다. 예를 들어, 경영정보학과의 평균 등급에 대한 언급이 없고, 합격 가능성에 대한 결론이 다릅니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 경영정보학과의 합격 가능성에 대한 질문에 대한 직접적인 답변을 제공하지 않습니다. 대신, 다른 정보에 초점을 맞추고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 관련성과 일관성이 부족하여 전체적인 흐름이 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 주제와 관련된 정보가 부족하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 경영정보학과의 합격 가능성에 대한 정확한 정보를 제공하지 않습니다. 원본의 수치와 결론을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트와의 관계가 거의 없으며, 질문에 대한 적절한 답변을 제공하지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 그러나 일부 정보는 관련이 있을 수 있으나, 전체적으로는 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제와 관련된 정보가 부족하여 전체적인 이해가 어렵습니다. 원본 텍스트와의 연결이 부족하여 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.5590068621649533</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个关键信息：
+1. 经营信息学部2024年的招生计划。
+2. 经营信息学部的录取标准和竞争情况。
+根据提供的表格数据，我们可以看到以下内容：
+- **经营信息学部（一般学生）**：
+  - 招生人数：9人
+  - 报名人数：95人
+  - 竞争比：10.56:1
+- **录取标准**：
+  - 国语 + 数学 + 探讨（2个科目）的标准化总分平均值和标准差。
+  - 英语等级的平均值和标准差。
+  - 能力考试4个科目的等级平均值和标准差。
+从这些数据中，我们可以看出经营信息学部的竞争非常激烈。我们需要知道5.33这个分数在国语、数学、英语以及能力考试中的具体表现，并将其与已知的录取分数线进行比较。
+假设5.33是能力考试4个科目的标准化总分平均值（这是最直接相关的指标），我们可以参考以下步骤：
+1. 查看经营信息学部的能力考试4个科目标准化总分的平均值和标准差。
+2. 比较5.33与已知的录取分数线。
+如果5.33高于或接近已知的录取分数线，那么有可能被录取。但是，由于具体的数据没有直接给出，我们无法做出确切判断。
+建议：
+- 访问东国大学官方网站获取最新的招生信息和具体的录取分数线。
+- 如果可能的话，咨询学校的招生办公室以获得更准确的信息。
+综上所述，在没有更多具体数据的情况下，仅凭5.33这个分数很难确定是否能被经营信息学部录取。建议进一步核实相关信息。</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적과 관련된 정보를 포함하고 있으며, 3.33의 성적이 평균보다 낮지만 합격 가능성이 있다는 점을 언급하고 있습니다. 그러나 "최종 합격자들의 성적 분포"에 대한 구체적인 데이터가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 수능 위주 전형에 대한 설명과 성적 평균을 언급하고 있습니다. 다만, "중간적인 성적"이라는 표현이 원본의 맥락과 약간의 차이를 보일 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 바이오응용공학부의 입학 전형과 성적에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 성적 평균과 관련된 정보가 정확합니다. 그러나 추가적인 데이터가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.719681102646004</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학과의 경우, 수능 위주 전형으로 운영됩니다. 따라서 성적만을 기준으로 판단하기보다는 전반적인 합격률과 경쟁률 등을 고려해야 합니다.
+현재 제공된 정보로는:
+1. **수능 위주의 전형**: 바이오응용공학과는 수능 위주로 전형을 진행합니다.
+2. **성적 평균**: 3.33은 중간적인 성적입니다. 하지만 최종 합격자들의 성적이 어떻게 분포되어 있는지 확인해야 합니다.
+**추천 사항:**
+1. **수능 성적 확인**: 제공된 수능 성적 평균과 표준편차를 참조하여 자신의 성적이 어느 정도인지 파악합니다.
+2. **경쟁률 확인**: 최초합격자와 충원 합격자의 경쟁률을 확인하고, 현재의 성적이 어느 위치에 있는지 판단합니다.
+3. **전형요소 평가**: 수능 위주 전형이지만, 면접 등 다른 요소도 고려될 수 있으므로 준비를 철저히 합니다.
+**예시 데이터:**
+- 2024학년도 바이오응용공학과 최초합격자의 성적 평균은 3.82입니다.
+- 표준편차는 0.65로, 이는 상대적으로 낮은 편입니다.
+따라서 3.33의 성적은 평균보다 약간 낮지만, 경쟁률과 전반적인 성적 분포를 고려하면 가능성이 있습니다. 하지만 확실한 답변을 위해서는 최종 합격자들의 성적 분포와 경쟁률 등을 확인하는 것이 좋습니다.
+추가 정보를 제공해주시면 더 정확한 판단이 가능할 것 같습니다. "수능(일반학생전형) 최초합격자" 표에서 바이오응용공학과의 데이터를 찾아보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 방사선학과의 전형 방식에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 2.8, 수능 4개 영역 3.82)과 현재 정시 등급(4.4)과의 관계를 명확히 반영하지 않고 있습니다. 따라서 일부 사실이 누락되었거나 왜곡된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 방사선학과의 전형 방식에 대한 정보를 제공하지만, 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 예를 들어, 방사선학과가 수능 위주의 일반학생전형을 모집하지 않는다고 언급했으나, 원본 텍스트에서는 정시 등급이 낮아 합격 가능성이 낮다고 명시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 방사선학과에 대한 정보와 지원 가능성에 대한 질문에 적절히 대응하고 있습니다. 그러나 원본 텍스트의 핵심 정보(평균 등급)에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 방사선학과의 전형 방식에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 방사선학과에 대한 질문에 적절하게 대응하고 있으며, 의미적으로 적절한 내용을 담고 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.6487482083389632</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 방사선학과의 정시 모집요강을 참고하여 답변 드리겠습니다.
+방사선학과는 주로 &lt;나&gt;군 실기/실적 위주 전형으로 운영되며, 수능 위주의 일반학생전형은 모집하지 않습니다. 따라서 성적이 4.4정도인 경우 방사선학과에 지원하기 위해서는 실기/실적 위주 전형을 통해 지원해야 합니다.
+방사선학과의 &lt;나&gt;군 실기/실적 위주 전형에서는 다음과 같은 점수를 얻어야 할 가능성이 높습니다:
+1. **국어, 수학, 영어 등급**:
+   - 국어: 4등급 이상
+   - 수학: 3등급 이상
+   - 영어: 2등급 이상
+2. **실기/실적 점수**:
+   - 방사선학과는 실기/실적 위주 전형으로 운영되므로, 해당 과목의 실기 점수가 필요합니다.
+3. **전형요소 반영비율**:
+   - 일반적으로 학생부교과 40%, 출결 10%, 서류(실적) 50%로 구성됩니다.
+   - 따라서 학생부 교과성적이 중요하며, 특히 국어, 수학, 영어 등급이 높아야 합니다.
+현재 성적으로는 방사선학과에 지원하기 어렵다고 볼 수 있습니다. 하지만 정확한 가능성을 판단하려면:
+1. **최종 학교생활기록부 점수**를 확인해야 합니다.
+2. **실기/실적 위주의 전형의 기준점수**와 비교해봐야 합니다.
+따라서, 현재 성적이 방사선학과에 충분하지 않다면 다른 전공이나 실기/실적 위주 전형을 고려하는 것이 좋습니다. 추가로 지원하려는 경우, 동의대학교 입학 홈페이지나 학부모 상담 센터를 통해 자세한 정보를 확인하시길 바랍니다.
+추가적으로, 방사선학과에 지원하기 위해서는 실기/실적 위주 전형을 준비해야 하므로, 해당 과목의 실기를 미리 준비하는 것이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급(2.8 및 3.82)과 비교할 때 2.66이 평균보다 높다는 주장은 부정확합니다. 따라서 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 2.66이 평균보다 높다는 주장은 원본과 모순됩니다. 전반적으로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 정보를 제공하며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 세부 사항은 원본 텍스트와 직접적으로 연결되지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 지원에 대한 여러 요소를 다루고 있지만, 2.66이 평균보다 높다는 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 적절한 의미를 전달하고 있으며, 전반적으로 맥락에 맞습니다. 그러나 일부 세부 사항은 원본과 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.642141269295608</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 방사선학과 정시 모집에서 2.66이라는 평균 등급을 가지고 지원하는 것은 상대적으로 낮은 점수입니다.
+방사선학과는 보통 과목별 등급이 중요하게 평가되므로, 2.66의 평균 등급으로 지원한다면 다음과 같은 점들을 고려해야 합니다:
+1. **등급 분포**: 방사선학과에서는 주로 국어, 수학, 영어 등의 과목에서 높은 등급을 요구합니다. 특히 수학은 필수 과목이므로 2.66보다 높은 수학 등급이 필요할 수 있습니다.
+2. **등급 상위권**: 방사선학과는 경쟁률이 높기 때문에 지원자의 평균 등급이 3.0 이상인 경우가 많습니다. 따라서 2.66은 약간 낮은 편입니다.
+3. **전형요소 반영 비율**: 방사선학과의 전형요소 중 학업역량이 높게 반영되므로, 지원자의 과목별 등급을 잘 살펴보는 것이 중요합니다.
+4. **경쟁률 및 모집인원**: 정시 모집인원이 27명이고 지원자가 많다면 경쟁률이 높아질 수 있으므로 낮은 평균 등급으로 지원하는 것은 위험할 수 있습니다.
+5. **추천서 및 자기소개서**: 서류평가에서 좋은 점수를 받기 위해 추천서와 자기소개서의 퀄리티도 중요합니다.
+따라서 2.66이라는 평균 등급으로 방사선학과에 지원한다면:
+- **등급 상위권 과목**을 잘 보유하고 있는지 확인하세요.
+- **전형요소 반영 비율**을 고려하여 서류 준비를 철저히 하세요.
+- 경쟁률이 높아질 수 있으므로, 다른 학과도 함께 지원하는 것을 고려해보는 것이 좋습니다.
+결론적으로 2.66의 평균 등급으로 방사선학과에 지원한다면 위험성이 있습니다만, 철저한 준비와 노력으로 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 잘못 해석하고 있습니다. 원문에서는 귀하의 성적이 평균보다 높고 경쟁률이 낮아졌다는 점을 긍정적으로 언급하고 있지만, 생성된 응답은 합격 가능성이 낮다고 주장하고 있습니다. 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일관성이 없습니다. 원문은 귀하의 성적이 평균보다 높고 경쟁률이 낮아졌다는 점을 강조하고 있지만, 생성된 응답은 반대로 합격 가능성이 낮다고 주장하고 있습니다. 이러한 상반된 주장은 일관성을 결여하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과 농어촌 전형에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원문에서 강조된 긍정적인 요소를 간과하고 부정적인 측면만을 강조하고 있어, 전체적으로는 다소 관련성이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있습니다. 귀하의 성적이 평균보다 높고 경쟁률이 낮아졌다는 점을 무시하고 합격 가능성이 낮다고 주장하는 것은 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받고 있습니다. 따라서 전반적인 품질이 낮다고 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 전체적인 의미 전달이 부족합니다. 원문의 긍정적인 요소를 간과하고 부정적인 측면만을 강조하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.5849016977676208</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학과 농어촌 전형에 지원하셨다면, 합격 가능성은 낮을 것으로 보입니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 농어촌 전형에도 많은 지원자가 있을 가능성이 높습니다. 이전 년도의 경쟁률을 확인해보시면 더 명확한 판단이 가능합니다.
+2. **성적 기준**: 대부분의 대학에서 농어촌 학생전형은 일반적인 성적이 조금 낮게 요구되지만, 여전히 꽤 높은 점수를 필요로 합니다. 3.66이라는 성적은 평균 이상이긴 하지만, 경쟁률과 모집인원을 고려하면 합격하기 어렵다고 보입니다.
+3. **기타 요소**: 농어촌 전형에서는 종종 지역 거주 기록이나 농어촌 배경 등 추가적인 지원 자료가 중요하게 작용할 수 있습니다. 이 부분도 준비해두시는 것이 좋습니다.
+4. **대안 모색**: 합격 가능성 낮다면, 다른 전공이나 일반전형으로 지원하는 것을 고려해보세요. 대학별로 다양한 전형이 있으므로, 가능한 모든 옵션을 살펴보는 것이 중요합니다.
+5. **추가 정보 확인**: 동의대학교 입학 홈페이지나 학과 홈페이지를 통해 최신 모집요강 및 기준을 확인하시고, 필요하다면 학부모 상담이나 입학처와 연락하여 자세한 조언을 받으시는 것도 좋습니다.
+결론적으로 3.66의 성적만으로는 경찰행정학과 농어촌 전형에 합격하기 어렵다고 보이지만, 추가적인 지원 자료나 다른 전형을 통해 기회를 찾아보는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자 순위가 낮다는 점을 언급하고 있으며, 충원 과정에 대한 설명도 포함되어 있습니다. 그러나 원문에서 제시된 특정 학과 목록에 대한 언급이 없고, 예비 25번의 합격 가능성에 대한 구체적인 정보가 부족하여 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자 순위가 낮다는 점에서 원문과 일치하지만, 원문에서 제공하는 특정 학과 목록을 언급하지 않아 일관성이 떨어집니다. 또한, 원문은 합격 가능성이 있다고 명시하고 있으나, 생성된 응답은 가능성이 낮다고 강조하고 있어 일관성에 문제가 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자 순위와 관련된 정보를 제공하고 있으며, 지원자의 상황에 대한 조언을 포함하고 있어 원문과 관련성이 높습니다. 그러나 원문에서 제시된 특정 학과 목록에 대한 언급이 없어서 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 약해져서 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자 순위와 관련된 정보를 제공하지만, 원문에서 제시된 특정 학과 목록을 포함하지 않아 정확성 점수가 낮아졌습니다. 또한, 합격 가능성에 대한 해석이 원문과 다르게 제시되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균적입니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성과 정확성에서도 완전하지 않지만 유창성과 일관성은 좋습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 맥락과 의미에 적절하게 부합하지만, 특정 학과 목록을 언급하지 않아 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.4350518804628142</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자 순위는 상당히 낮은 위치입니다. 그러나 정시 모집에서 예비 합격자가 발생하면, 실제 합격자는 최종적으로 충원 과정을 거쳐 결정됩니다. 따라서 아직 모든 것이 확정되지 않았기 때문에, 작은 가능성은 있지만 매우 낮습니다.
+다음과 같은 점들을 고려해보세요:
+1. 경쟁률: 해당 모집단위의 경쟁률이 얼마나 높았는지 확인하세요.
+2. 평균 성적: 최초 합격자들의 평균 성적이 어느 정도인지 파악해보세요.
+3. 동점자 처리 기준: 만약 다른 지원자가 동점이라면, 동점자 처리 기준에 따라 순위가 바뀔 수 있습니다.
+결론적으로, 확실한 답변은 없습니다만, 낮은 확률이지만 가능성은 여전히 존재합니다. 최선을 다해 준비하고, 필요하다면 추가 지원을 고려해보는 것도 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 잘못된 점이 있습니다. 원본 텍스트에 따르면 법경찰행정학부는 존재하지 않으며, 경찰행정학과에 대한 성적 정보가 제공되고 있습니다. 그러나 생성된 응답은 법경찰행정학부에 대한 성적을 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 법경찰행정학부에 대한 언급이 원본 텍스트와 상충하며, 경찰행정학과에 대한 성적 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교에 대한 정보를 제공하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 경찰행정학과에 대한 정보가 포함되어야 했으나, 법경찰행정학부에 대한 정보로 대체되었습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 주제와 관련된 정보의 부재로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 잘못된 정보를 포함하고 있으며, 경찰행정학과에 대한 성적 정보가 누락되어 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있습니다. 법경찰행정학부에 대한 언급은 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.7202629850584676</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 정시로 지원하려는 경우, 다음과 같은 점수를 고려해야 합니다:
+1. **전형별 평균 성적**:
+   - 일반학생전형: 약 95점 이상
+   - 실기/실적(경기실적우수자전형): 약 80-90점 정도
+2. **최근 몇 년간의 합격선**:
+   - 2023년: 평균 94점 (일반학생전형)
+   - 2022년: 평균 95점 (일반학생전형)
+3. **안정적인 합격을 위해서는**:
+   - 일반학생전형: 약 95-100점 이상
+   - 실기/실적(경기실적우수자전형): 약 85-95점 정도
+4. **문이 닫히는 점수**:
+   - 일반적으로 전형별로 최고 절반 수준의 학생들이 합격합니다.
+   - 예를 들어, 평균 95점인 경우, 약 80-90점 정도가 문을 닫을 가능성이 높습니다.
+따라서, 법경찰행정학부에 정시로 안정적으로 들어갈려면 **평균 95점 이상**이 필요하며, 최소한 **85-90점 정도는 받는 것이 좋습니다**. 이 수준에서 합격 확률은 높아집니다.
+추가적으로, 서류평가와 면접 등 다른 평가 요소도 중요하므로, 전반적인 준비를 철저히 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 모집단위 변경과 관련된 정보를 포함하고 있으며, 정시 등급 5.33에 대한 합격 가능성을 언급하고 있습니다. 그러나 아동학과의 평균 등급에 대한 구체적인 수치가 누락되어 있어 약간의 정보 부족이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 보육가정상담학과의 정보와 합격 가능성을 설명하고 있습니다. 다만, 아동학과의 평균 등급에 대한 언급이 없어서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 보육가정상담학과에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 모집 인원과 경쟁률에 대한 정보를 제공하고 있지만, 아동학과의 평균 등급에 대한 구체적인 수치가 누락되어 있어 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5350669803814645</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과에 대한 정보를 확인해보겠습니다.
+1. **모집단위와 모집인원**: 
+   - 보육가정상담학과는 아동학과로 분류되어 있습니다.
+   - 2024학년도 모집 인원은 13명입니다 (참조: 수능(일반학생전형) 최초합격자 표).
+2. **경쟁률**:
+   - 지원 인원이 11명이고, 모집인원이 13명이라는 점을 고려하면 경쟁률은 약 0.85입니다 (참조: 수능(일반학생전형) 최초합격자 표).
+3. **등급과 점수**:
+   - 정시 산출 등급이 5.33인 경우, 이는 상당히 높은 등급입니다.
+   - 보육가정상담학과의 경쟁률이 약 0.85로 매우 낮습니다.
+4. **합격 가능성**:
+   - 현재 정보만으로 볼 때, 정시 산출 등급이 5.33인 경우 보육가정상담학과에 합격할 가능성이 높습니다.
+   - 그러나 최종 합격 여부는 서류심사, 면접 등의 추가 평가 과정을 거쳐 결정됩니다.
+따라서, 정시 산출 등급이 5.33인 경우 보육가정상담학과에 합격할 가능성이 매우 높다고 볼 수 있습니다. 하지만 최종 결과는 전형별로 다양한 평가 요소를 고려하여 결정되므로, 추가적인 정보와 절차를 준수해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표와 관련된 정보와 예비 번호에 대한 해석을 포함하고 있으며, 전반적으로 사실에 기반하고 있습니다. 그러나 "예비 12번을 받았다는 것은 12명 중에서 가장 높은 점수를 얻었다는 의미"라는 부분은 다소 과장된 해석일 수 있습니다. 예비 번호는 단순히 순위를 나타내는 것이지 점수와 직접적으로 연결되지 않기 때문입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 예비 번호에 대한 해석에서 차이가 있습니다. 원본 텍스트는 예비 번호가 12번일 경우 합격 가능성이 있다고 언급하고 있지만, 생성된 응답은 예비 번호가 높은 점수를 의미한다고 설명하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 예비 번호와 충원 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 여부에 영향을 미치는지를 명확하게 설명하고 있습니다. 그러나 일부 문장 간의 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 충원 합격과 관련된 여러 요인을 설명하고 있습니다. 그러나 예비 번호에 대한 해석에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 여러 차원에서 좋은 성과를 보이고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 해석에서 다소 과장된 부분이 있어 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.7573978550583238</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담 전공의 경우, 충원 합격 과정에서 예비 12번을 받은 것은 좋은 신호입니다. 그러나 최종 합격 여부는 여러 요인에 따라 결정됩니다:
+1. **경쟁률**: 충원 합격자 발표 이후로 결원이 발생했는지 확인해야 합니다.
+2. **예비 순위**: 예비 12번을 받았다는 것은 12명 중에서 가장 높은 점수를 얻었다는 의미입니다. 이는 상대적으로 좋은 위치에 있다는 것을 나타냅니다.
+3. **결원 발생 여부**: 만약 결원이 발생했다면, 예비 순위가 낮은 학생들도 충원 합격할 수 있습니다. 그러나 예비 순위가 높은 학생들이 먼저 선발될 가능성이 큽니다.
+4. **합격 기준 점수**: 최종 합격자들의 평균 점수와 표준 편차를 확인하여, 자신의 점수가 어느 정도인지 판단할 수 있습니다.
+5. **모집인원 및 지원 인원**: 모집인원과 지원 인원의 비율도 중요한 요소입니다. 지원 인원이 많다면 경쟁률이 높아질 수 있으며, 이는 합격 가능성에 영향을 줄 수 있습니다.
+따라서, 예비 12번을 받았다는 것은 좋은 위치에 있다는 것을 의미하지만, 최종 합격 여부는 결원 발생 여부와 경쟁률 등 여러 요인에 따라 결정됩니다. 동의대학교 입학관리팀에 직접 문의하거나, 입학공고를 통해 최신 정보를 확인하는 것이 가장 정확한 방법입니다.
+추가적으로, 학교 홈페이지나 입학상담을 통해 더 자세한 정보와 조언을 얻는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 4.75라는 수능 성적이 높은 점수라는 점을 언급하고 있으며, 유아교육학과의 전형 방식과 평가 요소에 대한 설명이 포함되어 있습니다. 그러나 유아교육학과의 평균 수능 성적이 4.18이라는 정보는 명시되지 않았습니다. 따라서 일부 정보가 누락되어 있어 4점으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 전형 방식과 평가 요소에 대한 설명을 제공하지만, 원본 텍스트에서 제시된 유아교육학과의 평균 수능 성적과의 일관성이 부족합니다. 원본 텍스트에서는 4.75의 성적이 유아교육학과에 지원하기 어려운 점수라고 명시되어 있으나, 생성된 응답에서는 학생부 성적과 면접 평가의 중요성을 강조하고 있습니다. 따라서 3점으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 유아교육학과에 지원할 때 고려해야 할 요소들을 잘 설명하고 있으며, 질문의 주제와 관련이 깊습니다. 따라서 5점으로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 4점으로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 4점으로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 수능 성적에 대한 설명이 정확하지만, 원본 텍스트의 특정 수치(4.18)를 명시하지 않아 일부 정확성이 떨어집니다. 따라서 4점으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용이 원본 텍스트와의 연결이 약해 4점으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다. 따라서 4점으로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.7316180496913985</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 등급은 상당히 높은 점수입니다. 한국의 수능 등급 체계에서 4등급 이상은 대체로 좋은 성적을 의미합니다.
+유아교육학과에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. **전형 방식**: 유아교육학과는 일반적으로 학생부교과 전형이 주를 이루며, 수능성적이 아닌 학생부 교과 성적을 중점적으로 평가합니다.
+2. **수능 등급**: 4.75의 수능 등급은 대체로 좋은 점수지만, 유아교육학과에서는 이보다 낮은 수능 등급도 충분히 합격할 수 있습니다. 특히 교직 관련 과목이 강조되는 학과에서는 수능 등급보다는 학생부 성적이 더 중요합니다.
+3. **학생부 성적**: 유아교육학과에서는 학생부 교과성적, 진로 탐색 활동, 사회참여 활동 등을 중점적으로 평가하므로, 이 부분에서 높은 점수를 받는 것이 중요합니다.
+4. **면접 및 서류평가**: 면접이나 서류평가에서도 학생의 성격, 진로계획 등이 중요한 역할을 합니다.
+따라서 4.75라는 수능 등급만으로 유아교육학과에 확실하게 합격하기는 어렵지만, 학생부 성적과 면접 및 서류평가에서 좋은 점수를 받으면 충분히 가능합니다. 
+결론적으로:
+- **수능성적**: 4.75 등급은 좋은 성적이지만 유아교육학과에서는 학생부 성적이 더 중요합니다.
+- **합격 가능성**: 학생부 성적, 면접 및 서류평가에서 높은 점수를 받으면 가능성이 있습니다.
+추가적으로, 지원 전에 해당 학과의 모집요강을 꼭 확인하고, 학교 관계자와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 전형 요소와 수능 성적의 중요성을 잘 설명하고 있으며, 4.16의 등급이 좋은 점수라는 점도 언급하고 있습니다. 그러나 2023년도 최저합격선에 대한 정보가 없다는 점에서 약간의 정보 부족이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 수능 성적이 합격 여부에 중요한 영향을 미친다는 점을 강조하고 있습니다. 다만, 최저합격선에 대한 언급이 없어서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확하지만, 최저합격선에 대한 구체적인 정보가 부족하여 완전한 정확성에는 다소 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행하고 있지만, 최저합격선에 대한 정보 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 설명되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.6282159523124208</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(현 아동학과)는 일반학생전형을 실시합니다. 이 전형은 주로 수능 성적을 기준으로 합니다.
+보육가정상담학과의 경우, 전형요소 반영비율은 수능 100%입니다 (수능 위주 전형). 따라서 수능 점수가 핵심적인 평가 요인입니다.
+현재 제시된 정보로는:
+- 수능 최저합격선이 공개되지 않았습니다.
+- 수능 성적에 따라 합격 여부가 결정됩니다.
+4.16의 등급은 상당히 좋은 점수지만, 정확한 합격 가능성 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. 해당 학과의 2023년도 최저합격선 수능 성적
+2. 현재 모집인원 및 지원자 수
+3. 경쟁률
+만약 2023년도 최저합격선이 4.0 이상이라면, 4.16 등급은 충분히 합격 가능성이 높습니다.
+추천 사항:
+- 동의대학교 입학 홈페이지를 확인하여 최신 정보를 얻으세요.
+- 해당 학과의 2023년도 최저합격선을 찾아보세요.
+- 경쟁률을 고려하세요. 경쟁률이 높다면, 조금 더 좋은 성적이 필요할 수 있습니다.
+결론적으로 현재 정보만으로는 정확한 판단이 어렵습니다. 동의대학교 입학 홈페이지를 확인하거나, 학교 관계자에게 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트는 해당 학과가 정시로 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트는 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 모집에 포함되어 있다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 정시 지원에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용과는 일치하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어융합학과의 정시 지원 가능성에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.4647438679784338</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어융합학과는 정시 모집에 포함되어 있습니다. 해당 학과의 전형방법은 수능 위주로 진행되며, 평균 등급을 예측하기 위해서는 과목별 반영비율과 성적 산출 방법 등을 고려해야 합니다.
+### 소프트웨어융합학과 정시 모집 유형
+- **전형명**: 가군 수능(일반학생전형)
+- **모집단위**: 소프트웨어융합학과
+### 성적 산출 방법
+- **국어 + 수학 + 영어 등급점수 + 탐구 표준점수**
+  - 수능 국어, 수학, 영어는 등급을 점수로 변환하여 반영합니다.
+  - 탐구 과목은 표준점수를 합산하여 반영합니다.
+### 예상 평균 성적
+- **국어**: 4등급 이상
+- **수학**: 3등급 이상 (미적분 또는 기하 응시 시 가산점 적용)
+- **영어**: 5등급 이상
+- **탐구 과목**: 2개의 탐구 과목에서 좋은 성적을 받는 것이 중요합니다.
+### 예상 평균 등급
+- **국어 + 수학 + 영어 + 탐구 표준점수**를 합산하여 평균 점수를 계산하면, 대략 400점 이상이 필요할 것으로 보입니다. 이는 4등급의 국어와 수학(3등급), 5등급의 영어, 그리고 탐구 과목에서 좋은 성적을 받은 경우에 해당합니다.
+### 참고사항
+- **수능 최저기준**: 동의대학교에서는 수능 최저기준이 없습니다.
+- **경쟁률**: 경쟁률이 높아서 400점 이상을 받더라도 선발 인원만큼만 합격할 수 있습니다. 따라서, 개인의 성적과 경쟁력을 고려하여 지원해야 합니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 대략 4등급의 국어와 수학(3등급), 5등급의 영어, 그리고 탐구 과목에서 좋은 성적을 받는 것이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 서류 평가와 면접 점수의 비중에 대한 정보를 제공하고 있으며, 서류 준비에 필요한 서류 목록과 유의사항을 상세히 설명하고 있습니다. 그러나 원본 텍스트에서 언급된 "학생부 교과성적"에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 서류 평가와 면접의 비중에 대한 설명이 잘 연결되어 있습니다. 다만, 원본 텍스트의 "학생부 교과성적" 부분이 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 항목이 명확하게 구분되어 있어 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트의 "학생부 교과성적"에 대한 언급이 없어서 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 정보 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.4766111792830239</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>1. 면접 점수와 서류 평가의 비중:
+   - 나군 조기취업형 계약학과전형에서는 서류평가 영역이 학생들의 최종 평점에 큰 영향을 미칩니다.
+   - 서류평가 영역은 600점 중에서 공동체역량(120점), 학업역량(240점), 전공적합성(240점)으로 구성되어 있으며, 이는 총 점수의 약 80%를 차지합니다.
+   - 면접은 400점 중에서 학업역량과 전공적합성을 평가하며, 이는 총 점수의 약 20%에 해당합니다.
+2. 서류 준비:
+   - 고교 학생생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부
+   - 외국고교 졸업(예정)자인 경우, 공증받은 외국고교 졸업(예정)증명서 1부와 공증받은 외국고교 성적증명서 1부를 제출해야 합니다.
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+3. 특별히 준비해야 하는 사항:
+   - 창의적 체험활동, 교과학습발달상황(세부능력 및 특기사항 포함), 행동특성 및 종합의견 등이 중요합니다.
+   - 학교생활기록부에 기재된 내용은 사실과 일치해야 하며, 과장되거나 부정적인 사례는 피해야 합니다.
+4. 서류 평가 시 유의사항:
+   - 교사의 평가와 그 근거를 명확히 기재해야 합니다.
+   - 학교폭력 기록이 있는 경우 감점 또는 불합격 처리될 수 있으므로 주의해야 합니다.
+따라서, 서류 준비는 매우 중요하며, 면접 점수보다 더 많은 비중을 차지합니다. 서류를 철저히 준비하고, 사실에 근거한 내용을 기재하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 입학 기준에 대한 구체적인 정보를 제공하지 않고, 주어진 성적(4.08)과 관련된 정보가 잘못 해석되었습니다. 원본 텍스트에서 언급된 평균 등급(4.12)과 비교하여 4.08이 약간 높은 수준이라고 했지만, 이는 사실과 다릅니다. 또한, 영어 성적에 대한 언급이 있지만, 원본 텍스트에서는 영어 성적에 대한 정보가 없습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 4.08의 성적이 최초합격자의 평균 등급보다 약간 낮다고 명시하고 있으며, 생성된 응답은 이를 잘못 해석하여 다른 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 입학 기준에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용과는 다소 동떨어져 있습니다. 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 전체적으로 일관된 흐름이 부족합니다. 원본 텍스트의 질문에 대한 명확한 답변이 없기 때문에 논리적인 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 성적에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았습니다. 여러 차원에서 부족한 점이 많습니다.
+8. Semantic Appropriateness Score (2-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보가 포함되어 있습니다. 원본 텍스트의 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.5014252888501022</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个关键信息：
+1. 同意大学软件工程学部（Software Engineering Department）2024年招生计划中的录取标准。
+2. 您提供的成绩是否符合该专业的最低要求。
+根据您提供的表格数据，我们可以看到以下内容：
+- 软件工程学部的2024年招生计划中：
+  - 招生人数：30
+  - 报名人数：146
+  - 竞争比：4.87
+- 最低录取标准（基于标准转换分数）:
+  - 国语 + 数学 + 探讨(2个) (含加分) 标准转换分数总和的平均值为330.11，标准差为9.08。
+您提供的成绩是4.08，这个成绩指的是英语等级。根据表格中的数据，软件工程学部的英语等级平均分为3.30，标准差为0.82。您的成绩（4.08）高于该专业的平均英语等级分数。
+但是，最关键的是需要关注的是总分（国语 + 数学 + 探讨(2个) (含加分) 标准转换分数总和）。您没有提供这个分数的具体数值，因此无法直接判断是否能够被录取。通常情况下，如果您的总分达到了该专业的最低录取标准，那么有希望被录取。
+建议：
+1. 查看自己的国语、数学和探讨科目的具体成绩，并计算出总分。
+2. 对比软件工程学部的最低录取分数（330.11）来判断是否达到要求。
+3. 如果不确定，可以参考同意大学官网上的详细招生信息或直接联系学校咨询。
+综上所述，仅凭英语等级4.08无法确定能否被同义大学软件工程学部录取。需要结合其他科目的成绩综合考虑。建议您计算总分并进一步确认是否达到该专业的最低录取标准。</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 전형요소 반영비율에 대한 구체적인 정보를 제공하고 있지만, 원본 텍스트에서 언급된 "정시 모집에 대한 구체적인 합격 등급 정보는 제공되지 않는다"는 내용을 무시하고 있습니다. 또한, 전형요소 반영비율이 0%로 설정된 항목들이 있으며, 이는 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보(예: 전형요소 반영비율)와 결론을 제시하고 있습니다. 원본 텍스트는 합격 가능성을 확인하기 위해 추가적인 정보를 요구하고 있지만, 생성된 응답은 특정한 결론을 내리고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 전형요소와 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 주제인 합격 등급 정보에 대한 언급이 부족합니다. 그러나 전반적으로 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보가 나열되어 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 특히 결론 부분에서 원본 텍스트의 맥락과 연결되지 않는 점이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(전형요소 반영비율 등)를 포함하고 있어 정확성이 낮습니다. 
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 특정 정보의 왜곡이 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 혼란을 줄 수 있는 점이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5612610132962945</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어융합학과의 경우, 전형요소 반영비율을 살펴보면 다음과 같습니다:
+- **전형명**: 소프트웨어공학부 (컴퓨터소프트웨어공학 - 공학, 응용소프트웨어공학)
+- **모집인원**: 7
+- **사정 단계**: 일괄 합산
+- **전형요소 반영비율**:
+  - 학생부교과: 0%
+  - 출결: 0%
+  - 서류: 0%
+  - 면접: 0%
+  - 실기: 70%
+  - 수능: 30%
+- **수능최저기준**: 없음
+이 학과는 **실기/실적 위주**로 전형을 진행하며, 수능 점수가 반영되는 비율은 30%입니다.
+따라서, 평균 5등급의 영어 성적이 있는 경우에도 실기 점수를 얻어야 합니다. 
+- **영어 등급**: 평균 5등급 (4.17) 이므로, 이는 합격에 도움이 될 수 있습니다.
+- **실기 점수**: 필요합니다. 실기 점수가 높아야만 합격 가능성이 높아집니다.
+따라서, 평균 5등급의 영어 성적만으로는 충분하지 않습니다. 실기 점수도 얻어야 합니다. 
+**결론**: 단순히 평균 5등급의 영어 성적이 있다면, 합격 가능성은 낮습니다. 실기 점수를 포함하여 전반적인 평가에서 우수한 결과를 내야 합니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 전형 요건과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 수능 등급과 비교하여 합격 가능성을 판단하는 데 필요한 구체적인 수치를 명시하지 않았습니다. 또한, "수능 최저 기준은 없지만"이라는 부분은 원본 텍스트와 다소 상충할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 전형 요건과 경쟁률에 대한 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 결론과는 다소 다른 해석을 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 추가적인 세부사항이 포함되어 있어 약간의 주제 이탈이 발생합니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하지만, 원본 텍스트의 특정 수치나 조건을 명확히 반영하지 않아 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 추가 정보가 원본의 의도와 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.6214966125762715</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 지원하는 것은 가능하지만, 확실한 것은 아닙니다. 이유는 다음과 같습니다:
+1. **전형 요건**: 신소재공학과는 실기/실적 위주 전형으로 운영되며, 수능 성적이 주요 평가 기준 중 하나입니다.
+2. **수능 최저 기준**: 해당 학과의 수능 최저 기준은 없지만, 일반적으로 4.0 이상이 필요합니다. 4.28은 이 기준을 충족하고 있습니다.
+3. **경쟁률**: 신소재공학과는 모집인원이 많고 지원자가 많은 학과 중 하나입니다. 따라서 경쟁률이 높아서 4.28만으로는 낮은 확률로 입학할 수 있습니다.
+4. **전형 요소 평가**: 실기 성적, 면접 성적 등 다른 전형 요소도 중요한 역할을 합니다. 따라서 수능 성적이 좋은 만큼 실기와 면접에서도 뛰어난 성적을 받아야 합니다.
+5. **추천서 및 자기소개서**: 이들 서류의 내용과 퀄리티도 입학에 큰 영향을 미칩니다.
+결론적으로, 4.28이라는 성적은 충분히 좋은 점수이지만, 신소재공학과는 매우 경쟁력 있는 학과라서 추가적인 노력이 필요합니다. 실기와 면접에서 뛰어난 성적을 받아야 하며, 자기소개서와 추천서도 잘 준비해야 합니다.
+추가적으로, 동의대학교 입학 홈페이지나 관계부서에 문의하여 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공되지만, 기본적인 사실에 대한 정확성이 유지되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요 없다는 주장을 지속적으로 지지하고 있습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 일반학생전형에 대한 추가적인 세부사항을 제공하여 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형별 특징이 명확하게 구분되어 설명되고 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 사실적으로 정확하며, 수능 일반학생전형에 대한 정보가 올바르게 전달되고 있습니다. 모든 정보가 원본 텍스트와 일치합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.5609796337186915</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 일반학생전형(가군, 나군, 다군)에 지원할 때는 기본적으로 수능 성적만으로 지원이 가능합니다. 따라서 자기소개서를 작성하지 않아도 됩니다.
+다음은 각 전형별 특징입니다:
+1. **수능 위주 전형** (가군, 나군, 다군):
+   - **가군**: 레저스포츠학과와 태권도학과는 실기고사가 포함되지만, 일반적으로 자기소개서는 필요하지 않습니다.
+   - **나군**: 대부분의 모집단위에서는 수능 성적만으로 지원이 가능합니다. 일부 모집단위에서 면접이나 서류평가가 추가로 진행될 수 있지만, 기본적인 자기소개서 작성은 필요하지 않습니다.
+   - **다군**: 수능 성적이 전부 반영되며, 자기소개서는 필요하지 않습니다.
+2. **실기/실적 위주 전형** (가군 실기/실적, 나군 실기/실적):
+   - 이 경우 실기고사 성적이 중요하므로, 실기 준비에 집중하는 것이 좋습니다. 하지만 기본적인 자기소개서는 필요하지 않습니다.
+3. **학생부종합 전형**:
+   - 이 경우에는 자기소개서가 필수적으로 요구되며, 학생부와 면접을 통해 평가됩니다. 그러나 일반적으로 수능 위주 전형에서는 자기소개서 작성은 필요하지 않습니다.
+따라서, 2024학년도 동의대학교 정시모집에서 수능 일반학생전형으로 지원할 때는 기본적으로 자기소개서를 작성하지 않아도 됩니다. 다만, 각 모집단위별 특징을 확인하고, 필요하다면 해당 모집단위의 추가 요구사항을 준수하는 것이 좋습니다.
+자세한 내용은 동의대학교 입학처 홈페이지나 전형요강을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수 4.5에 대한 합격 가능성을 평가하기 위해 고려해야 할 여러 요인을 제시하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 언급된 특정 학과의 평균 등급과 표준 편차에 대한 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 수능 점수와 관련된 다양한 요소를 고려해야 한다는 점에서 일치합니다. 다만, 원본 텍스트의 특정 데이터(예: 평균 등급)와는 직접적으로 연결되지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 매우 관련이 깊습니다. 수능 점수와 합격 가능성에 대한 질문에 대해 적절한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 여러 요소를 정확하게 설명하고 있지만, 원본 텍스트의 구체적인 수치(예: 평균 등급)와 비교할 때 일부 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.5522918760715645</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 하지만 다음과 같은 요인들을 고려해보면 도움이 될 것입니다:
+1. 모집단위와 전형 유형:
+   - 어떤 학과와 모집단위를 지원했는지
+   - 수능 성적만으로 선발되는 학과인지, 아니면 서류 등 다른 요소도 반영되는 학과인지
+2. 최저합격선:
+   - 해당 학과의 최저합격선은 어느 정도인지 확인해야 합니다.
+3. 경쟁률:
+   - 지원자의 수능 점수와 같은 점수를 받은 지원자들의 수에 비해 모집인원이 얼마나 많은지
+4. 추가모집 여부:
+   - 해당 학과가 추가모집을 진행하는지 확인해야 합니다.
+5. 다른 성적 요소:
+   - 실기, 면접 등 다른 평가 항목의 점수도 고려해야 합니다.
+   - 서류평가 결과 등
+6. 전년도 데이터:
+   - 과거에 비슷한 점수를 받은 지원자의 합격 여부를 참고할 수 있습니다.
+추천: 
+- 해당 학과의 최저합격선을 확인하세요
+- 추가모집 여부와 일정을 확인하세요
+- 다른 평가 항목(실기, 면접 등)의 점수도 고려하세요
+위 정보들을 종합적으로 분석하여 결정하는 것이 좋습니다. 필요하다면 입학처에 직접 문의해보시는 것도 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 모집 요강에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 5.06, 수능 5.78)에 대한 구체적인 언급이 없고, 수능 최저 기준이 없다는 점이 다소 모호하게 표현되어 있습니다. 따라서 일부 사실이 누락되거나 정확하지 않을 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 전형 방식과 관련된 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보와는 일치하지 않는 부분이 있습니다. 예를 들어, 수능 최저 기준이 없다고 언급했으나, 원본 텍스트에서는 평균 등급이 합격 가능성과 관련이 있다고 명시되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과에 지원하기 위한 정보와 관련된 내용을 포함하고 있어 대체로 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽고 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 떨어지는 부분이 있어 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 전형 방식과 관련된 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.6234690426678906</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)의 모집요강을 보면, 해당 학과는 실기/실적 위주 전형으로 운영됩니다. 
+- **전형 유형**: 실기/실적 위주
+- **모집 단위**: 신소재공학과, 고분자나노공학과
+**학생부교과 반영 비율**: 
+- 학생부교과: 70%
+- 출결: 12%
+- 서류(실적): 18%
+따라서, 신소재 공학부에 지원하려면 다음과 같은 점수와 등급을 갖추는 것이 중요합니다:
+1. **학생부 교과성적**: 국어, 수학, 영어교과 중 석차등급 상위 4과목의 평균이 높아야 합니다.
+2. **실적(실기)**: 관련 실적이나 경험이 요구됩니다.
+**수능 최저 기준**: 
+- 수능 최저 기준은 없으므로, 수능 점수가 합격에 큰 영향을 미치지 않습니다.
+**경쟁률과 등급**: 
+최종합격자들의 평균 표준 변환 점수를 보면, 신소재공학과와 고분자나노공학과 모두 높은 경쟁률을 보이고 있습니다. 예를 들어:
+- **신소재공학과**: 378.15 (평균)
+- **고분자나노공학과**: 326.97 (평균)
+따라서, 신소재 공학부에 합격하려면 대략적으로 수능 표준 변환 점수가 300점 이상이 필요할 것으로 예상됩니다.
+**결론**: 
+신소재공학부에 지원하려면 학생부 교과성적이 높은 등급을 받는 것이 중요하며, 수능 최저 기준 없이 경쟁률과 합격자들의 평균 점수를 고려하면 300점 이상의 표준 변환 점수가 필요할 것으로 보입니다. 하지만 정확한 등급은 지원자의 개인 성적과 경쟁률에 따라 달라질 수 있으므로, 최신 모집요강을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수와 귀하의 점수를 비교하는 데 있어 적절한 정보를 제공하고 있습니다. 그러나 "최종 평균 점수가 1점 정도 높아진 것은 가능합니다"라는 부분은 다소 모호하게 표현되어 있어, 정확한 사실을 전달하지 못할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 조건과 변수를 언급하면서 원본의 단순한 비교를 복잡하게 만들고 있습니다. 이로 인해 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문자의 상황에 대한 적절한 조언을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 포인트가 명확하게 연결되어 있습니다. 그러나 일부 내용이 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 "1점 정도 높아진 것은 가능합니다"라는 표현은 다소 불확실성을 내포하고 있어 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5161232397568033</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수를 환산할 때, 작년 데이터와 비교해보는 것은 좋은 접근법입니다. 하지만 몇 가지 중요한 점을 고려해야 합니다:
+1. **표준점수 변동**: 각 년도마다 표준점수가 약간 변동될 수 있습니다. 작년과 올해의 표준점수가 완전히 동일하지 않을 가능성이 있습니다.
+2. **모집인원 및 지원자 수**: 모집인원이나 지원자 수가 달라지면 경쟁률이 달라질 수 있으며, 이는 최종 합격 점수에 영향을 줄 수 있습니다.
+3. **학과 특성**: 각 학과의 특성과 전형 방식이 다르므로 표준점수가 동일하게 적용되지 않을 수 있습니다.
+4. **최종 평균 점수**: 최종 평균 점수는 여러 요인에 따라 변동될 수 있으며, 작년보다 1점 정도 높아진 것은 가능합니다.
+5. **변동성**: 교육 시스템은 항상 변화하므로 작년과 올해의 결과가 완전히 일치하지 않을 수 있습니다.
+따라서, 동일한 표준점수라도 최종 평균 점수가 1점 정도 높아진 것은 가능합니다. 하지만 확실하게 예측하기는 어렵습니다. 
+추천되는 방법은:
+- **최신 정보 확인**: 본교 입학 홈페이지나 공식 안내 자료를 통해 가장 최신의 정보를 확인하세요.
+- **예상 점수 대비**: 작년 데이터와 비교하면서 자신의 목표 점수를 설정해보세요.
+- **전형 요소 이해**: 각 학과의 전형 방식을 잘 이해하고, 자신에게 유리한 요인을 활용하세요.
+이런 방법들을 통해 최선의 준비를 할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 신소재공학부의 평균 성적과 관련된 정보를 제공하고 있으며, 지원자의 성적에 대한 평가도 적절하게 이루어졌습니다. 그러나, 영어 점수에 대한 구체적인 수치가 제공되지 않아 다소 부족한 점이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 많지만, 일부 세부사항에서 차이가 있습니다. 예를 들어, 영어 점수의 변환에 대한 설명이 원본 텍스트와 완전히 일치하지 않으며, 전형요소 반영비율에 대한 정보가 추가되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원자의 성적과 합격 가능성에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 일부 부분에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 특정 수치나 세부사항에서 약간의 차이가 있어 완벽한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 전반적으로 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나, 일부 세부사항에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6206001580044044</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>4.3등급의 수능 영어 점수가 정시 성적 산출 시 약 4.1~4.2 등급으로 변환될 것으로 보입니다. 동의대학교의 신소재공학과 일반학생전형의 경우, 수능 영어 등급은 반영되지만 다른 과목(국어, 수학, 탐구)에서도 높은 점수를 받는 것이 중요합니다.
+신소재공학과의 정원외 모집인원 및 전형요소 반영비율을 확인해 보겠습니다:
+- **모집인원**: 32명
+- **전형요소**:
+  - 수능: 100%
+수능 성적 산출 방법은 다음과 같습니다:
+- 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+이 중에서 영어 등급 점수가 약간 낮아지더라도, 다른 과목의 높은 점수로 상쇄될 가능성이 있습니다. 특히, 탐구 영역에서 높은 점수를 받는다면 전체 성적이 향상될 수 있습니다.
+**예시 산출:**
+- 국어 표준점수
+- 수학 표준점수
+- 4.3 등급의 영어 (약 120점)
+- 탐구 표준점수
+이러한 점수를 합산하면, 전체 성적이 충분히 경쟁력을 갖추는 수준일 가능성이 있습니다.
+**결론:**
+4.3등급의 영어 점수가 약 120점으로 변환되어도, 다른 과목에서 높은 점수를 받으면 신소재공학과에 합격할 수 있는 가능성은 있습니다. 하지만 경쟁률이 매우 높으므로, 탐구 영역 등 다른 과목에서도 높은 성적을 받는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지나 전화로 상세한 문의를 하시면 더 정확한 정보를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 왜곡하고 있습니다. 예를 들어, 영어 등급과 수능 4개 영역 등급이 원본 텍스트의 평균과 다르게 제시되었습니다. 또한, "최종등록자"라는 표현은 원본의 "최초합격자"와 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 특히, 성적 수치와 관련된 정보가 원본과 다르며, 이는 응답의 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 일부 세부 사항이 잘못되었기 때문에 완전한 관련성을 갖추지 못했습니다. 그러나 전반적으로 주제에 대한 언급은 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되었고, 읽기에도 무리가 없습니다. 다만, 일부 표현이 원본과 다르게 사용되어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본과의 불일치로 인해 완전한 일관성을 유지하지는 못했습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 가지로 다릅니다. 특히 성적 수치와 관련된 정보가 부정확하여 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 어느 정도 일치하지만, 잘못된 정보로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.7017587086516496</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 최종등록자의 성적을 확인해보겠습니다.
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합**: 415.80
+- **영어 등급**: 4.33
+- **수능 4개 영역 등급**: 5.25
+이 성적은 최종등록자 중에서 가장 높은 성적을 나타냅니다. 이는 대략적인 수준을 알려주는 정보입니다.
+만약 특정 과목별로 더 자세한 정보가 필요하시다면, 다음과 같은 점수를 참고하실 수 있습니다:
+- **국어 표준점수**: 303.80
+- **수학 표준점수**: 298.21 (미적분 또는 기하)
+- **영어 등급**: 4.33
+- **탐구 과목 (사회탐구 또는 과학탐구) 표준점수**: 5.25
+이러한 성적이 대략적인 수준을 나타내며, 실제 입시에서는 경쟁률과 모집인원 등 다양한 요소가 고려됩니다.
+만약 더 자세한 정보나 추가 질문이 있으시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보와 관련된 내용을 다루고 있지만, 원본 텍스트에서 제공된 구체적인 학과별 성적 평균과 표준 편차에 대한 정보가 누락되어 있습니다. 또한, 수능 최저 기준이 없다고 언급했으나, 원본 텍스트에서는 충원 합격 가능성을 다루고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 특정 성적에 대한 충원 합격 가능성을 다루고 있지만, 생성된 응답은 수능 최저 기준에 대한 정보로 초점을 맞추고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제인 5.27 성적의 충원 합격 가능성과는 직접적으로 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 데이터와 사실을 반영하지 않고 있으며, 수능 최저 기준에 대한 정보가 원본 텍스트와 다르게 해석되고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있어 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.561877607857066</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 최저 기준을 확인해 보겠습니다.
+현재 제공된 정보로는 "전형요소 반영비율" 표를 참조하겠습니다. 
+- 전형 유형 : 수능 위주
+- 모집단위 : 전 모집단위 (일괄 합산)
+- 전형요소 반영비율 : { 0 /  0 /  0 /  0 /  0 / 100 / }
+이 표에서 볼 수 있듯이, 수능 위주의 전형에서는 수능 점수가 100% 반영됩니다. 따라서 수능 최저 기준을 확인해야 합니다.
+- 수능최저기준 : 없음
+따라서, 수능 성적만으로는 정확한 판단이 어렵습니다. 하지만 수능 최저 기준이 없으므로, 이 성적으로는 충분히 지원 가능합니다.
+추후에 모집단위별로 더 자세한 정보를 확인하시거나, 동의대학교 입학처 웹사이트를 참조해 보시는 것이 좋겠습니다. 특히 각 모집단위별 수능 최저 기준이 변경되었을 수도 있으므로, 최신 정보를 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 4.2라는 점수가 합격 가능성에 미치는 영향을 설명하고 있습니다. 그러나 "4.2라는 교과성적만으로는 확실한 합격 가능성은 낮습니다"라는 부분은 다소 과장된 해석일 수 있습니다. 따라서, 전반적으로 정확하지만 일부 주장은 다소 신중할 필요가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소스 텍스트의 정보와 일치하는 부분이 있지만, "4.2라는 교과성적만으로는 확실한 합격 가능성은 낮습니다"라는 주장은 소스 텍스트의 긍정적인 해석과 상충할 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심 주제인 소프트웨어공학부의 합격 가능성과 관련된 다양한 요소를 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 정보를 잘 반영하고 있으며, 전반적으로 정확한 내용을 담고 있습니다. 그러나 일부 주장은 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6104635340005493</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 중등교육 기간 내에서의 등급 평균을 의미하는 것으로 보입니다. 동의대학교 소프트웨어공학부의 전형요소 반영비율을 살펴보면, 대부분의 경우 수능이 주요한 역할을 합니다.
+소프트웨어공학부는 실기/실적 위주 전형으로 분류되며, 그 중반에 수능 점수가 반영됩니다. 그러나 학생부교과와 면접 등 다른 요소도 중요한 역할을 합니다.
+4.2의 성적이 좋은 점수이지만, 소프트웨어공학부는 주로 수능 점수를 기준으로 선발하기 때문에, 4.2라는 교과성적만으로는 확실한 합격 가능성은 낮습니다. 그러나 다음과 같은 요소들을 고려하면 더 좋은 결과를 얻을 수 있습니다:
+1. **면접 성적**: 면접에서 좋은 점수를 받으면 전형의 전체적인 평가에 긍정적으로 작용할 수 있습니다.
+2. **진로선택과목 성적**: 관련 진로선택과목에서 높은 등급을 받으면 학업역량 부분에서 우위를 점할 수 있습니다.
+3. **추천서 및 자기소개서**: 잘 작성된 추천서와 자기소개서는 전형의 개인적인 평가에 긍정적으로 작용할 수 있습니다.
+따라서, 4.2의 교과성적을 가지고 소프트웨어공학부를 지원한다면, 면접 준비와 진로선택과목 성적 향상 등 다른 요소들을 강화하는 것이 중요합니다. 또한, 동의대학교의 전형요소 반영비율을 확인하여 전체적인 평가 방식을 이해하고, 이를 고려한 지원 전략을 세우는 것이 좋습니다.
+추가적으로, 동의대학교의 공식 홈페이지나 입학처에 문의하시면 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 3.92라는 점수에 대한 합격 가능성을 논의하고 있습니다. 그러나, 응답에서 언급된 성적 산출 방법이 원문에 명시된 내용과 다소 차이가 있어 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 성적 산출 방법에 대한 설명이 원문과 다르게 해석되고 있습니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 화학환경공학부의 합격 가능성에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확한 정보를 제공하고 있으나, 성적 산출 방법에 대한 설명에서 약간의 오해가 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 다루고 있습니다. 다만, 일부 표현에서 약간의 부적절함이 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.743619862098195</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 일반학생전형에 지원 가능한지 판단해보겠습니다.
+1. **성적 산출방법 확인**:
+   - 성적 산출 방식은 국어 + 수학 + 영어 등급점수 + 탐구 표준점수입니다.
+   - 3.92는 이 점수들의 합산 평균 점수를 의미할 가능성이 높습니다.
+2. **화학환경공학부 일반학생전형의 성적 기준 확인**:
+   - 화학환경공학부(화학공학과, 환경공학과, 응용화학과)는 다군 수능(일반학생전형)에 해당합니다.
+   - 다군 수능(일반학생전형)의 성적 산출 방식은 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수입니다.
+3. **성적 기준 확인**:
+   - 현재 제공된 정보로는 화학환경공학부의 정확한 최저합격선이 명시되어 있지 않습니다.
+   - 일반적으로 다군 수능(일반학생전형)의 경우, 국어와 수학의 점수가 높은 편입니다.
+4. **가정**:
+   - 3.92라는 점수는 평균적인 성적을 나타내고, 이 정도 점수로는 경쟁률이 높은 학과에서는 낮은 확률로 합격할 수 있습니다.
+   - 그러나 특정 학과의 최저합격선이 3.92보다 낮다면 가능성이 있습니다.
+5. **결론**:
+   - 현재 정보만으로는 정확한 판단을 내리기 어렵습니다. 화학환경공학부의 정확한 최저합격선을 확인해야 합니다.
+   - 만약 해당 학과의 최저합격선이 3.92보다 낮다면, 지원 가능성이 있습니다.
+**추천 사항:**
+- 동의대학교 입학 홈페이지를 참조하여 화학환경공학부의 정확한 성적 기준을 확인하세요.
+- 또는 대학 관계자에게 직접 문의하시면 더 정확한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보와 관련된 여러 사실을 잘못 해석하고 있습니다. 예를 들어, 응답에서는 "고등학교 학업 수준 테스트"를 언급하고 있지만, 원문에서는 수능 성적에 대한 정보만 제공하고 있습니다. 또한, 수능 성적이 아닌 다른 시험 성적에 대한 언급이 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 수능 성적에 대한 정보만을 제공하고 있으며, 응답에서는 고등학교 학업 수준 테스트와 관련된 내용을 추가하여 혼란을 초래하고 있습니다. 이로 인해 원문과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 고등학교 학업 수준 테스트와 같은 불필요한 정보를 포함하고 있어 주제와의 관련성이 떨어집니다. 원문에서 요구하는 정보에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길고 복잡하여 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 고등학교 학업 수준 테스트와 관련된 내용이 원문과의 연결이 약해 응답의 일관성을 떨어뜨립니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 수능 성적에 대한 정보와 다르게 해석하고 있으며, 잘못된 정보가 포함되어 있습니다. 예를 들어, 수능 성적이 아닌 다른 시험 성적에 대한 언급이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 떨어집니다. 원문과의 관련성이 부족하고, 잘못된 정보가 포함되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 맥락과 관련된 내용을 다루고 있지만, 고등학교 학업 수준 테스트와 같은 불필요한 정보가 포함되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.5203082546644462</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我们需要考虑以下几个因素：
+1. 您的高考成绩是否符合该专业的最低录取分数线。
+2. 高考科目和分数的具体要求。
+根据您提供的信息，您已经通过了东义大学的自主招生考试（东义大学式正试），并且获得了4.25的成绩。但是，这个成绩是基于您的高中学业水平测试（学能考试）成绩，并不是高考成绩。
+对于化学环境工程专业来说：
+1. **科目要求**：根据提供的表格信息，该专业的科目要求包括国语、数学（概率统计或微积分或几何）、英语和两门选修课的社会科学或自然科学。您需要确保您的高考科目符合这些要求。
+2. **分数要求**：
+   - 国语：4.25
+   - 数学：根据您提供的信息，没有具体说明是哪一部分的数学（概率统计、微积分或几何），但通常微积分和几何部分会更难一些。假设您的数学成绩在这些科目中不低于3分。
+   - 英语：根据英语等级与分数之间的对应关系，4.25的成绩应该对应于至少7级以上的英语等级。
+**参考的英语等级与分数对应表如下（仅供参考）**：
+- 1等：83
+- 2等：91
+- 3等：99
+- 4等：107
+- 5等：115
+- 6等：123
+- 7等：131
+- 8等：139
+假设您的英语等级为7级，那么对应的分数应该在91分以上。
+**总结**：
+- 您的国语成绩4.25符合要求。
+- 数学成绩需要不低于3分（微积分或几何）。
+- 英语成绩需要达到至少7级（对应91分以上）。
+如果您的高考数学和英语成绩都满足上述条件，那么您应该可以申请化学环境工程专业的一般学生招生计划。建议您查看具体的招生简章以获取更详细的信息，并确保所有科目和分数都符合要求。如果有疑问，可以直接联系东义大学的招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 4.2라는 점수가 일반적으로 좋은 성적이라는 점을 언급하고 있으며, 합격 가능성에 대한 여러 요소를 설명하고 있습니다. 그러나, 원문에서 제공된 평균 성적과 비교할 때, 구체적인 수치나 기준을 제시하지 않아 다소 모호한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 제시된 평균 성적과 관련된 정보를 포함하고 있지만, 전형별 평균점수와 면접 점수 등 추가적인 요소를 강조하고 있어 원문과의 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문자의 성적에 대한 합격 가능성을 평가하는 데 필요한 정보를 제공하고 있으며, 원문과 관련된 내용을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나, 일부 정보가 추가되어 다소 복잡해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 일치하는 부분이 많지만, 구체적인 수치나 기준을 제시하지 않아 정확성이 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나, 일부 정보의 구체성이 부족하여 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과의 의미적 일치가 높지만, 추가적인 정보가 포함되어 있어 원문의 맥락에서 벗어날 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6206463181425407</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 실제 합격 가능성은 여러 요소에 따라 달라질 수 있습니다.
+1. **전형별 평균점수**: 영화학과의 전형별 평균점수가 필요합니다. 예를 들어, 실기/실적 위주 전형에서는 국어, 수학, 영어 등급이 중요할 수 있으며, 면접 성적이 높은 경우 유리할 수 있습니다.
+2. **면접 점수**: 영화학과는 종종 면접에서 창의성이나 표현력 등을 평가하기 때문에 면접 성적도 중요한 요소입니다.
+3. **전형별 비율**: 실기/실적 위주 전형에서는 실기 성적이 더 중요할 수 있습니다. 예를 들어, 제시된 표에 따르면 Z-런과 기초실기의 배점이 각각 350점(35%)으로 높습니다.
+4. **전형별 특성**: 영화학과는 창의성이 요구되는 전공이므로, 지원자의 창의적 체험활동이나 관련 활동 경험이 중요할 수 있습니다.
+따라서, 4.2라는 점수만으로는 확실한 합격 여부를 판단하기 어렵습니다. 다음 정보들을 확인해 보시기 바랍니다:
+- 영화학과의 정시 모집 전형별 평균점수와 비율
+- 면접 성적
+- 실기 성적 (Z-런, 기초실기 등)
+이러한 정보들이 더 추가되면 합격 가능성에 대한 좀 더 구체적인 판단을 할 수 있을 것입니다. 필요하다면 입학처나 해당 전공의 교수님에게 상세히 문의해 보시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 모든 단계가 올바르게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 서로 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.6462715868364616</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文描述：
+면접 절차는 다음과 같습니다:
+1. 대기실 입실 (Arrival at Waiting Room)
+2. 신분 확인 (Identification Check) 
+3. 고사장 앞 이동 (Move to Exam Room)
+4. 고사장 입실 (Enter Exam Room)
+5. 지원 동기 및 학업 계획 발표 (Presentation on Motivation and Academic Goals)
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 (Discussion on Academic Abilities and Major Suitability)
+7. 기타 질의응답 (Verification of Application Documents) 
+8. 퇴실 (Exit)
+面试流程如下：
+1. 到达候考室
+2. 身份验证
+3. 移动到考场外
+4. 进入考场
+5. 演讲个人动机和学术目标
+6. 讨论学业能力及专业匹配相关问题并回答提问
+7. 其他问题的回答（申请文件真实性验证）
+8. 离场</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보를 제공하는 원본 텍스트와 상반된 내용을 포함하고 있습니다. 원본 텍스트는 실기시험의 구체적인 항목과 요구 사항을 명시하고 있지만, 생성된 응답은 그러한 정보가 포함되어 있지 않다고 주장하며 일반적인 디자인 관련 실기 시험에 대한 설명을 제공합니다. 이는 사실과 일치하지 않으며, 원본의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 디자인조형학과의 실기시험에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 그러한 정보가 없다고 주장하며 전혀 다른 내용을 설명하고 있습니다. 이로 인해 두 텍스트 간의 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 일반적인 정보는 포함하고 있지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 원본 텍스트의 주요 포인트를 다루지 않고 일반적인 디자인 시험에 대한 설명으로 대체하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 전체적인 일관성이 떨어집니다. 일반적인 디자인 시험에 대한 설명이지만, 원본의 구체적인 내용과 연결되지 않아 논리적 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 원본에서 제공된 구체적인 정보와 요구 사항을 무시하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 내용을 제대로 반영하지 못하고 있으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 일반적인 설명을 제공하지만, 원본 텍스트의 맥락과는 맞지 않습니다. 원본의 구체적인 요구 사항을 무시하고 일반적인 내용을 다루고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해를 방해합니다. 내용이 명확하게 전달되지만, 주제와의 관련성이 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.6578563810882578</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 디자인조형학과의 실기시험 관련 내용이 포함되어 있지 않습니다. 디자인조형학과는 일반적으로 다음과 같은 실기 시험을 거칩니다:
+1. 그림 그리기: 다양한 주제에 대한 시간 내에서의 캔버스 또는 종이 위의 그림 그리기
+2. 색채 작업: 색상 조합, 색채 이론 적용 등
+3. 디자인 테스트: 로고 디자인, 포장디자인 등의 실제 프로젝트 수행
+4. 창의력 평가: 독창적인 아이디어 표현 및 실현 가능성 검토
+5. 기술 능력: 도구 사용법, 작업 과정 이해 등
+6. 비평적 사고: 작품 해석과 비평 능력 평가
+하지만 정확한 시험 내용은 동의대학교의 공식 입학요강이나 홈페이지를 참조해야 합니다. 제공된 정보는 일반적인 디자인 관련 실기 시험을 기반으로 작성되었습니다. 실제 시험 과정과 요구 사항이 변할 수 있으므로 최신 정보를 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '시각디자인', '산업디자인', '공예디자인'이라는 실기종목을 언급하고 있지만, 원본 텍스트에서는 '기초디자인'과 '사고의 전환'이 실기종목으로 명시되어 있습니다. 따라서 사실관계에서 큰 차이가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 실기종목과 준비물, 실기주제에 대한 정보와 일치하지 않으며, 실기종목의 내용이 서로 다릅니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으나, 실기종목의 명칭이 다르기 때문에 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 내용이 원본과 다르기 때문에 완전한 유창성은 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본과의 차이로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 실기종목에 대한 정보가 잘못되었습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실관계와 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 실기종목의 명칭이 다르기 때문에 의미적으로 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본과의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.7924844833790585</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+- **실기종목**: 시각디자인 / 산업디자인 / 공예디자인 중 택1
+- **준비물**:
+  - 볼펜
+  - 연필
+  - 색연필
+  - 수채물감 등 표현에 필요한 도구
+- **실기주제**: 
+  - 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+  - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+  - 제공된 사물과 이미지 이외의 형상은 표현하지 마시오.
+  - 제공된 사물은 모두 1회 이상 표현하시오.
+  - 제공된 사물의 색상은 변경하지 마시오.
+- **화지크기**: 켄트지3절
+- **시간**: 5시간
+이 정보는 디자인조형학과에서 시각디자인, 산업디자인, 공예디자인 종목 모두에 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 누락된 정보나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.9704296719778795</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+1. 배드민턴(남):
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남):
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 주제A와 주제B의 내용, 시험 당일의 절차 및 예시가 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 모순되지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 모든 핵심 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.8412022773909243</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울
+시험 당일에는 이 두 가지 주제 중에서 각각 1개씩을 추첨하여 연결된 주제를 준비해야 합니다. 예시로는 "잠자리와 저울"과 같은 연결된 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
